--- a/xlsx/plate_with_hole_linear_mix.xlsx
+++ b/xlsx/plate_with_hole_linear_mix.xlsx
@@ -347,12 +347,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>-2.059737204339762</v>
+      </c>
+      <c r="C1">
+        <v>-0.9436544027009766</v>
+      </c>
+      <c r="D1">
+        <v>-1.2388347593326998</v>
+      </c>
+      <c r="E1">
+        <v>-1.3397920886656978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-2.0435429973704418</v>
+      </c>
+      <c r="C2">
+        <v>-1.3143524036832963</v>
+      </c>
+      <c r="D2">
+        <v>-1.4711279956356482</v>
+      </c>
+      <c r="E2">
+        <v>-1.6580349102105567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-1.9507836679658375</v>
+      </c>
+      <c r="C3">
+        <v>-1.3423685411638162</v>
+      </c>
+      <c r="D3">
+        <v>-1.434622872796984</v>
+      </c>
+      <c r="E3">
+        <v>-0.9873714529007095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-1.9082478231427324</v>
+      </c>
+      <c r="C4">
+        <v>-1.3080348868551197</v>
+      </c>
+      <c r="D4">
+        <v>-1.3687581602726013</v>
+      </c>
+      <c r="E4">
+        <v>0.6538809194400239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-1.7377747962471013</v>
+      </c>
+      <c r="C5">
+        <v>-1.1960959374228104</v>
+      </c>
+      <c r="D5">
+        <v>-1.1960959481578417</v>
+      </c>
+      <c r="E5">
+        <v>0.9188284965556232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-1.737743026746491</v>
+      </c>
+      <c r="C6">
+        <v>-1.1960403541633808</v>
+      </c>
+      <c r="D6">
+        <v>-1.1960403541634248</v>
+      </c>
+      <c r="E6">
+        <v>1.6521599159089897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>-1.7377429224652758</v>
+      </c>
+      <c r="C7">
+        <v>-1.196040181542067</v>
+      </c>
+      <c r="D7">
+        <v>-1.1960401815420707</v>
+      </c>
+      <c r="E7">
+        <v>2.65589914592181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-1.737742922445029</v>
+      </c>
+      <c r="C8">
+        <v>-1.1960401815133759</v>
+      </c>
+      <c r="D8">
+        <v>-1.1960401815133794</v>
+      </c>
+      <c r="E8">
+        <v>1.3912391828831236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-2.3598196706488626</v>
+      </c>
+      <c r="C9">
+        <v>-1.5356319578111242</v>
+      </c>
+      <c r="D9">
+        <v>-1.5400642758985115</v>
+      </c>
+      <c r="E9">
+        <v>0.5219234016848631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-2.3448079933068504</v>
+      </c>
+      <c r="C10">
+        <v>-1.5251790442423414</v>
+      </c>
+      <c r="D10">
+        <v>-1.5251790449859226</v>
+      </c>
+      <c r="E10">
+        <v>-0.2801807191351183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>-2.3448070157076133</v>
+      </c>
+      <c r="C11">
+        <v>-1.5251772497851641</v>
+      </c>
+      <c r="D11">
+        <v>-1.525177249785246</v>
+      </c>
+      <c r="E11">
+        <v>-0.4237515049637699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-2.3448069573721404</v>
+      </c>
+      <c r="C12">
+        <v>-1.5251771722972995</v>
+      </c>
+      <c r="D12">
+        <v>-1.525177172297374</v>
+      </c>
+      <c r="E12">
+        <v>-0.24236243499797588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>-2.34480677175049</v>
+      </c>
+      <c r="C13">
+        <v>-1.5251768822719758</v>
+      </c>
+      <c r="D13">
+        <v>-1.5251768822720224</v>
+      </c>
+      <c r="E13">
+        <v>2.0293539316632074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>-2.34480690797704</v>
+      </c>
+      <c r="C14">
+        <v>-1.5251771107382979</v>
+      </c>
+      <c r="D14">
+        <v>-1.5251771107386312</v>
+      </c>
+      <c r="E14">
+        <v>4.899329099448896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>-2.34480657131981</v>
+      </c>
+      <c r="C15">
+        <v>-1.5251765419328358</v>
+      </c>
+      <c r="D15">
+        <v>-1.5251765419328542</v>
+      </c>
+      <c r="E15">
+        <v>3.2786468804828677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>-2.3448065944713146</v>
+      </c>
+      <c r="C16">
+        <v>-1.525176541993138</v>
+      </c>
+      <c r="D16">
+        <v>-1.5251765419931564</v>
+      </c>
+      <c r="E16">
+        <v>6.056414307866376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>-3.057003272062839</v>
+      </c>
+      <c r="C17">
+        <v>-1.9356140894431084</v>
+      </c>
+      <c r="D17">
+        <v>-1.9504795607346934</v>
+      </c>
+      <c r="E17">
+        <v>-0.22441442207685952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>-2.9633506760458412</v>
+      </c>
+      <c r="C18">
+        <v>-1.853758946441157</v>
+      </c>
+      <c r="D18">
+        <v>-1.857392422578118</v>
+      </c>
+      <c r="E18">
+        <v>-0.06144713653228305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>-2.9475274977017603</v>
+      </c>
+      <c r="C19">
+        <v>-1.840984618079115</v>
+      </c>
+      <c r="D19">
+        <v>-1.8419415147879352</v>
+      </c>
+      <c r="E19">
+        <v>0.3082227938907196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>-2.943427585146316</v>
+      </c>
+      <c r="C20">
+        <v>-1.838326359785116</v>
+      </c>
+      <c r="D20">
+        <v>-1.838326544395843</v>
+      </c>
+      <c r="E20">
+        <v>-0.02751109136492065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>-2.9433986882171763</v>
+      </c>
+      <c r="C21">
+        <v>-1.8382855150125696</v>
+      </c>
+      <c r="D21">
+        <v>-1.8382855151321589</v>
+      </c>
+      <c r="E21">
+        <v>-0.41687448322290416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>-2.9433982155526595</v>
+      </c>
+      <c r="C22">
+        <v>-1.8382847565165539</v>
+      </c>
+      <c r="D22">
+        <v>-1.8382847565183915</v>
+      </c>
+      <c r="E22">
+        <v>-0.4313977648181251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>-2.943398109122981</v>
+      </c>
+      <c r="C23">
+        <v>-1.8382846007298943</v>
+      </c>
+      <c r="D23">
+        <v>-1.8382846007302478</v>
+      </c>
+      <c r="E23">
+        <v>-0.43218214171161606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>-2.943397952923846</v>
+      </c>
+      <c r="C24">
+        <v>-1.8382843193839886</v>
+      </c>
+      <c r="D24">
+        <v>-1.838284319384295</v>
+      </c>
+      <c r="E24">
+        <v>-0.35532332405986994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>-2.94339791033059</v>
+      </c>
+      <c r="C25">
+        <v>-1.8382842680359262</v>
+      </c>
+      <c r="D25">
+        <v>-1.838284268036243</v>
+      </c>
+      <c r="E25">
+        <v>-0.2688308818676869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>-2.9433975199771676</v>
+      </c>
+      <c r="C26">
+        <v>-1.838283623899512</v>
+      </c>
+      <c r="D26">
+        <v>-1.838283623899763</v>
+      </c>
+      <c r="E26">
+        <v>1.0195122562197931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>-2.9433970852189884</v>
+      </c>
+      <c r="C27">
+        <v>-1.8382829149281683</v>
+      </c>
+      <c r="D27">
+        <v>-1.8382829149283664</v>
+      </c>
+      <c r="E27">
+        <v>2.5700791605470443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>-2.943396615821265</v>
+      </c>
+      <c r="C28">
+        <v>-1.8382820813210046</v>
+      </c>
+      <c r="D28">
+        <v>-1.8382820813211427</v>
+      </c>
+      <c r="E28">
+        <v>4.064700037927208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>-2.943396304643611</v>
+      </c>
+      <c r="C29">
+        <v>-1.8382815705240558</v>
+      </c>
+      <c r="D29">
+        <v>-1.8382815705245623</v>
+      </c>
+      <c r="E29">
+        <v>4.759046549991692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>-2.9433963774669953</v>
+      </c>
+      <c r="C30">
+        <v>-1.8382816511899074</v>
+      </c>
+      <c r="D30">
+        <v>-1.838281651189987</v>
+      </c>
+      <c r="E30">
+        <v>4.956390292524351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>-2.9433944661645146</v>
+      </c>
+      <c r="C31">
+        <v>-1.838281639047282</v>
+      </c>
+      <c r="D31">
+        <v>-1.83828163904736</v>
+      </c>
+      <c r="E31">
+        <v>7.723413098183496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>-2.9433934210762085</v>
+      </c>
+      <c r="C32">
+        <v>-1.8382816233457682</v>
+      </c>
+      <c r="D32">
+        <v>-1.8382816233458457</v>
+      </c>
+      <c r="E32">
+        <v>8.123790647595788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>-3.7769968210658704</v>
+      </c>
+      <c r="C33">
+        <v>-2.472179233042063</v>
+      </c>
+      <c r="D33">
+        <v>-2.497317378944828</v>
+      </c>
+      <c r="E33">
+        <v>-0.7617228332935476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>-3.7000515921790536</v>
+      </c>
+      <c r="C34">
+        <v>-2.3109286522763393</v>
+      </c>
+      <c r="D34">
+        <v>-2.325901585707004</v>
+      </c>
+      <c r="E34">
+        <v>-0.3659246139875759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>-3.634029187304197</v>
+      </c>
+      <c r="C35">
+        <v>-2.2349711055247834</v>
+      </c>
+      <c r="D35">
+        <v>-2.249794175811208</v>
+      </c>
+      <c r="E35">
+        <v>-0.4839715761395876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>-3.597012693002162</v>
+      </c>
+      <c r="C36">
+        <v>-2.190951398197272</v>
+      </c>
+      <c r="D36">
+        <v>-2.2013314686292405</v>
+      </c>
+      <c r="E36">
+        <v>-0.17882279177033839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>-3.571185278006151</v>
+      </c>
+      <c r="C37">
+        <v>-2.1657361836002984</v>
+      </c>
+      <c r="D37">
+        <v>-2.1721206815396963</v>
+      </c>
+      <c r="E37">
+        <v>0.004587081893626332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>-3.5542008058180126</v>
+      </c>
+      <c r="C38">
+        <v>-2.151799058855593</v>
+      </c>
+      <c r="D38">
+        <v>-2.155609226581009</v>
+      </c>
+      <c r="E38">
+        <v>0.042680128487996856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>-3.544078216134123</v>
+      </c>
+      <c r="C39">
+        <v>-2.146271149064081</v>
+      </c>
+      <c r="D39">
+        <v>-2.1470051457463226</v>
+      </c>
+      <c r="E39">
+        <v>0.34516227313060227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>-3.5409153984798505</v>
+      </c>
+      <c r="C40">
+        <v>-2.143562136493825</v>
+      </c>
+      <c r="D40">
+        <v>-2.1435680235480525</v>
+      </c>
+      <c r="E40">
+        <v>0.07985100973031455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>-3.540714183937203</v>
+      </c>
+      <c r="C41">
+        <v>-2.143280073682115</v>
+      </c>
+      <c r="D41">
+        <v>-2.1432801431550956</v>
+      </c>
+      <c r="E41">
+        <v>-0.2982233899645613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>-3.540697092868017</v>
+      </c>
+      <c r="C42">
+        <v>-2.143258479303143</v>
+      </c>
+      <c r="D42">
+        <v>-2.14325848770303</v>
+      </c>
+      <c r="E42">
+        <v>-0.39822136336898234</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -360,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7811EA0D-028A-48E7-90FD-5D1A252E2958}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -373,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C03735-BA34-4EF6-9F76-197F790E4C1F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594877B7-FBD9-483C-B975-D7A2C2247322}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>

--- a/xlsx/plate_with_hole_linear_mix.xlsx
+++ b/xlsx/plate_with_hole_linear_mix.xlsx
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,16 +358,16 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-2.059737204339762</v>
+        <v>-3.4738351130017215</v>
       </c>
       <c r="C1">
-        <v>-0.9436544027009766</v>
+        <v>-1.3346497730898659</v>
       </c>
       <c r="D1">
-        <v>-1.2388347593326998</v>
+        <v>-1.4091821668448377</v>
       </c>
       <c r="E1">
-        <v>-1.3397920886656978</v>
+        <v>-2.980051776324781</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -375,16 +375,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-2.0435429973704418</v>
+        <v>-3.502996277866446</v>
       </c>
       <c r="C2">
-        <v>-1.3143524036832963</v>
+        <v>-1.3353641051018224</v>
       </c>
       <c r="D2">
-        <v>-1.4711279956356482</v>
+        <v>-1.4093277970600366</v>
       </c>
       <c r="E2">
-        <v>-1.6580349102105567</v>
+        <v>-3.213297522185786</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -392,16 +392,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-1.9507836679658375</v>
+        <v>-3.507995491044646</v>
       </c>
       <c r="C3">
-        <v>-1.3423685411638162</v>
+        <v>-1.3353660054573673</v>
       </c>
       <c r="D3">
-        <v>-1.434622872796984</v>
+        <v>-1.4093241532528973</v>
       </c>
       <c r="E3">
-        <v>-0.9873714529007095</v>
+        <v>-3.176658647717771</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -409,16 +409,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-1.9082478231427324</v>
+        <v>-3.509775525130635</v>
       </c>
       <c r="C4">
-        <v>-1.3080348868551197</v>
+        <v>-1.3353463152586642</v>
       </c>
       <c r="D4">
-        <v>-1.3687581602726013</v>
+        <v>-1.409313847197049</v>
       </c>
       <c r="E4">
-        <v>0.6538809194400239</v>
+        <v>-3.127265644039588</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -426,16 +426,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-1.7377747962471013</v>
+        <v>-3.5107649774111054</v>
       </c>
       <c r="C5">
-        <v>-1.1960959374228104</v>
+        <v>-1.3353246894129243</v>
       </c>
       <c r="D5">
-        <v>-1.1960959481578417</v>
+        <v>-1.4093033017145298</v>
       </c>
       <c r="E5">
-        <v>0.9188284965556232</v>
+        <v>-3.0872042255589616</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -443,16 +443,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-1.737743026746491</v>
+        <v>-3.511383679406551</v>
       </c>
       <c r="C6">
-        <v>-1.1960403541633808</v>
+        <v>-1.3353019249913787</v>
       </c>
       <c r="D6">
-        <v>-1.1960403541634248</v>
+        <v>-1.4092922450961103</v>
       </c>
       <c r="E6">
-        <v>1.6521599159089897</v>
+        <v>-3.0519328037600477</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -460,16 +460,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-1.7377429224652758</v>
+        <v>-3.5118125836814515</v>
       </c>
       <c r="C7">
-        <v>-1.196040181542067</v>
+        <v>-1.3352782339875466</v>
       </c>
       <c r="D7">
-        <v>-1.1960401815420707</v>
+        <v>-1.409280855793281</v>
       </c>
       <c r="E7">
-        <v>2.65589914592181</v>
+        <v>-3.020506684417785</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -477,16 +477,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-1.737742922445029</v>
+        <v>-3.512127464048598</v>
       </c>
       <c r="C8">
-        <v>-1.1960401815133759</v>
+        <v>-1.3352543162280588</v>
       </c>
       <c r="D8">
-        <v>-1.1960401815133794</v>
+        <v>-1.409269367183546</v>
       </c>
       <c r="E8">
-        <v>1.3912391828831236</v>
+        <v>-2.992406632464837</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -494,16 +494,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-2.3598196706488626</v>
+        <v>-3.5123749048061246</v>
       </c>
       <c r="C9">
-        <v>-1.5356319578111242</v>
+        <v>-1.335228939395894</v>
       </c>
       <c r="D9">
-        <v>-1.5400642758985115</v>
+        <v>-1.4092572400589676</v>
       </c>
       <c r="E9">
-        <v>0.5219234016848631</v>
+        <v>-2.9657920605638988</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -511,16 +511,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-2.3448079933068504</v>
+        <v>-3.5125672124711182</v>
       </c>
       <c r="C10">
-        <v>-1.5251790442423414</v>
+        <v>-1.3352060864352393</v>
       </c>
       <c r="D10">
-        <v>-1.5251790449859226</v>
+        <v>-1.4092462546651439</v>
       </c>
       <c r="E10">
-        <v>-0.2801807191351183</v>
+        <v>-2.9435250554839367</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -528,16 +528,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-2.3448070157076133</v>
+        <v>-3.512739682350344</v>
       </c>
       <c r="C11">
-        <v>-1.5251772497851641</v>
+        <v>-1.3351757046737416</v>
       </c>
       <c r="D11">
-        <v>-1.525177249785246</v>
+        <v>-1.4092318668069175</v>
       </c>
       <c r="E11">
-        <v>-0.4237515049637699</v>
+        <v>-2.9171963301453725</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -545,16 +545,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-2.3448069573721404</v>
+        <v>-3.5129154986036775</v>
       </c>
       <c r="C12">
-        <v>-1.5251771722972995</v>
+        <v>-1.3351397140414654</v>
       </c>
       <c r="D12">
-        <v>-1.525177172297374</v>
+        <v>-1.4092149289733535</v>
       </c>
       <c r="E12">
-        <v>-0.24236243499797588</v>
+        <v>-2.8892712086517456</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -562,16 +562,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-2.34480677175049</v>
+        <v>-3.5130603276392045</v>
       </c>
       <c r="C13">
-        <v>-1.5251768822719758</v>
+        <v>-1.3351237071313802</v>
       </c>
       <c r="D13">
-        <v>-1.5251768822720224</v>
+        <v>-1.409207151604487</v>
       </c>
       <c r="E13">
-        <v>2.0293539316632074</v>
+        <v>-2.8764818621746397</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -579,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-2.34480690797704</v>
+        <v>-3.5131488433817375</v>
       </c>
       <c r="C14">
-        <v>-1.5251771107382979</v>
+        <v>-1.3351075932305614</v>
       </c>
       <c r="D14">
-        <v>-1.5251771107386312</v>
+        <v>-1.4091992153617696</v>
       </c>
       <c r="E14">
-        <v>4.899329099448896</v>
+        <v>-2.8631786893751254</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -596,16 +596,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-2.34480657131981</v>
+        <v>-3.5132580112163567</v>
       </c>
       <c r="C15">
-        <v>-1.5251765419328358</v>
+        <v>-1.3350710649811006</v>
       </c>
       <c r="D15">
-        <v>-1.5251765419328542</v>
+        <v>-1.4091819582131537</v>
       </c>
       <c r="E15">
-        <v>3.2786468804828677</v>
+        <v>-2.8379626384933885</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -613,16 +613,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-2.3448065944713146</v>
+        <v>-3.9429482597042087</v>
       </c>
       <c r="C16">
-        <v>-1.525176541993138</v>
+        <v>-2.271117458727889</v>
       </c>
       <c r="D16">
-        <v>-1.5251765419931564</v>
+        <v>-2.2724460368195714</v>
       </c>
       <c r="E16">
-        <v>6.056414307866376</v>
+        <v>-2.6969790691439703</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -630,16 +630,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-3.057003272062839</v>
+        <v>-3.9353178644507274</v>
       </c>
       <c r="C17">
-        <v>-1.9356140894431084</v>
+        <v>-2.2709948095028976</v>
       </c>
       <c r="D17">
-        <v>-1.9504795607346934</v>
+        <v>-2.2723568112917896</v>
       </c>
       <c r="E17">
-        <v>-0.22441442207685952</v>
+        <v>-2.6358422928745977</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -647,16 +647,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-2.9633506760458412</v>
+        <v>-3.928142278655123</v>
       </c>
       <c r="C18">
-        <v>-1.853758946441157</v>
+        <v>-2.2708673223376477</v>
       </c>
       <c r="D18">
-        <v>-1.857392422578118</v>
+        <v>-2.272259512710138</v>
       </c>
       <c r="E18">
-        <v>-0.06144713653228305</v>
+        <v>-2.565824395735494</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -664,16 +664,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-2.9475274977017603</v>
+        <v>-3.920935134307709</v>
       </c>
       <c r="C19">
-        <v>-1.840984618079115</v>
+        <v>-2.2707339358902465</v>
       </c>
       <c r="D19">
-        <v>-1.8419415147879352</v>
+        <v>-2.2721503137416965</v>
       </c>
       <c r="E19">
-        <v>0.3082227938907196</v>
+        <v>-2.4863529031751703</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -681,16 +681,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-2.943427585146316</v>
+        <v>-3.913944307543518</v>
       </c>
       <c r="C20">
-        <v>-1.838326359785116</v>
+        <v>-2.270590062707213</v>
       </c>
       <c r="D20">
-        <v>-1.838326544395843</v>
+        <v>-2.272029931177685</v>
       </c>
       <c r="E20">
-        <v>-0.02751109136492065</v>
+        <v>-2.400542897225231</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -698,16 +698,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>-2.9433986882171763</v>
+        <v>-3.908140738469824</v>
       </c>
       <c r="C21">
-        <v>-1.8382855150125696</v>
+        <v>-2.270435064845409</v>
       </c>
       <c r="D21">
-        <v>-1.8382855151321589</v>
+        <v>-2.2719074983720473</v>
       </c>
       <c r="E21">
-        <v>-0.41687448322290416</v>
+        <v>-2.3134574300166113</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -715,16 +715,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-2.9433982155526595</v>
+        <v>-3.904760765368581</v>
       </c>
       <c r="C22">
-        <v>-1.8382847565165539</v>
+        <v>-2.2702723110497818</v>
       </c>
       <c r="D22">
-        <v>-1.8382847565183915</v>
+        <v>-2.271789456278106</v>
       </c>
       <c r="E22">
-        <v>-0.4313977648181251</v>
+        <v>-2.2296581272584706</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -732,16 +732,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>-2.943398109122981</v>
+        <v>-3.903818165776133</v>
       </c>
       <c r="C23">
-        <v>-1.8382846007298943</v>
+        <v>-2.270107630714369</v>
       </c>
       <c r="D23">
-        <v>-1.8382846007302478</v>
+        <v>-2.27167150882425</v>
       </c>
       <c r="E23">
-        <v>-0.43218214171161606</v>
+        <v>-2.147294007644464</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -749,16 +749,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>-2.943397952923846</v>
+        <v>-3.904147779043677</v>
       </c>
       <c r="C24">
-        <v>-1.8382843193839886</v>
+        <v>-2.269945946794804</v>
       </c>
       <c r="D24">
-        <v>-1.838284319384295</v>
+        <v>-2.271524856234907</v>
       </c>
       <c r="E24">
-        <v>-0.35532332405986994</v>
+        <v>-2.054962217706594</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -766,16 +766,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>-2.94339791033059</v>
+        <v>-3.906330664813579</v>
       </c>
       <c r="C25">
-        <v>-1.8382842680359262</v>
+        <v>-2.2697896288974047</v>
       </c>
       <c r="D25">
-        <v>-1.838284268036243</v>
+        <v>-2.2713432367436366</v>
       </c>
       <c r="E25">
-        <v>-0.2688308818676869</v>
+        <v>-1.9542467808684796</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -783,16 +783,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>-2.9433975199771676</v>
+        <v>-3.911602181196641</v>
       </c>
       <c r="C26">
-        <v>-1.838283623899512</v>
+        <v>-2.269653239495437</v>
       </c>
       <c r="D26">
-        <v>-1.838283623899763</v>
+        <v>-2.2711114544548887</v>
       </c>
       <c r="E26">
-        <v>1.0195122562197931</v>
+        <v>-1.855380066789952</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -800,16 +800,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-2.9433970852189884</v>
+        <v>-3.9230859445453996</v>
       </c>
       <c r="C27">
-        <v>-1.8382829149281683</v>
+        <v>-2.269494426048764</v>
       </c>
       <c r="D27">
-        <v>-1.8382829149283664</v>
+        <v>-2.2707844188131725</v>
       </c>
       <c r="E27">
-        <v>2.5700791605470443</v>
+        <v>-1.7436748381476206</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -817,16 +817,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-2.943396615821265</v>
+        <v>-4.022259964067133</v>
       </c>
       <c r="C28">
-        <v>-1.8382820813210046</v>
+        <v>-2.271367829434012</v>
       </c>
       <c r="D28">
-        <v>-1.8382820813211427</v>
+        <v>-2.2726750480406515</v>
       </c>
       <c r="E28">
-        <v>4.064700037927208</v>
+        <v>-2.434524031097886</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -834,16 +834,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-2.943396304643611</v>
+        <v>-4.003503637312744</v>
       </c>
       <c r="C29">
-        <v>-1.8382815705240558</v>
+        <v>-2.2689069077229176</v>
       </c>
       <c r="D29">
-        <v>-1.8382815705245623</v>
+        <v>-2.269549240018737</v>
       </c>
       <c r="E29">
-        <v>4.759046549991692</v>
+        <v>-1.445773692562725</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -851,16 +851,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-2.9433963774669953</v>
+        <v>-4.0589289165994344</v>
       </c>
       <c r="C30">
-        <v>-1.8382816511899074</v>
+        <v>-2.268632512452395</v>
       </c>
       <c r="D30">
-        <v>-1.838281651189987</v>
+        <v>-2.268988028831919</v>
       </c>
       <c r="E30">
-        <v>4.956390292524351</v>
+        <v>-1.3406365844996704</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -868,16 +868,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-2.9433944661645146</v>
+        <v>-4.066870438589974</v>
       </c>
       <c r="C31">
-        <v>-1.838281639047282</v>
+        <v>-2.2686202754697975</v>
       </c>
       <c r="D31">
-        <v>-1.83828163904736</v>
+        <v>-2.268810980546527</v>
       </c>
       <c r="E31">
-        <v>7.723413098183496</v>
+        <v>-1.3235118422686656</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -885,16 +885,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-2.9433934210762085</v>
+        <v>-4.060925761540189</v>
       </c>
       <c r="C32">
-        <v>-1.8382816233457682</v>
+        <v>-2.268574019499326</v>
       </c>
       <c r="D32">
-        <v>-1.8382816233458457</v>
+        <v>-2.268783536376519</v>
       </c>
       <c r="E32">
-        <v>8.123790647595788</v>
+        <v>-0.9473002671284537</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -902,16 +902,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-3.7769968210658704</v>
+        <v>-3.9637599822520255</v>
       </c>
       <c r="C33">
-        <v>-2.472179233042063</v>
+        <v>-2.2659089069337006</v>
       </c>
       <c r="D33">
-        <v>-2.497317378944828</v>
+        <v>-2.266087694720344</v>
       </c>
       <c r="E33">
-        <v>-0.7617228332935476</v>
+        <v>0.37435688257217714</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -919,16 +919,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>-3.7000515921790536</v>
+        <v>-3.8767151499109365</v>
       </c>
       <c r="C34">
-        <v>-2.3109286522763393</v>
+        <v>-2.264615096311006</v>
       </c>
       <c r="D34">
-        <v>-2.325901585707004</v>
+        <v>-2.264924103576813</v>
       </c>
       <c r="E34">
-        <v>-0.3659246139875759</v>
+        <v>-0.017805980283446883</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -936,16 +936,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-3.634029187304197</v>
+        <v>-3.812487005553555</v>
       </c>
       <c r="C35">
-        <v>-2.2349711055247834</v>
+        <v>-2.2618031515839125</v>
       </c>
       <c r="D35">
-        <v>-2.249794175811208</v>
+        <v>-2.261985605898547</v>
       </c>
       <c r="E35">
-        <v>-0.4839715761395876</v>
+        <v>0.06276899176686804</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -953,16 +953,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>-3.597012693002162</v>
+        <v>-4.003759122475385</v>
       </c>
       <c r="C36">
-        <v>-2.190951398197272</v>
+        <v>-2.271823716933759</v>
       </c>
       <c r="D36">
-        <v>-2.2013314686292405</v>
+        <v>-2.272128121471077</v>
       </c>
       <c r="E36">
-        <v>-0.17882279177033839</v>
+        <v>-1.2915750630779421</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -970,16 +970,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>-3.571185278006151</v>
+        <v>-0.6884016147619946</v>
       </c>
       <c r="C37">
-        <v>-2.1657361836002984</v>
+        <v>0.10073218087004857</v>
       </c>
       <c r="D37">
-        <v>-2.1721206815396963</v>
+        <v>0.09725912752353907</v>
       </c>
       <c r="E37">
-        <v>0.004587081893626332</v>
+        <v>3.3075410683188355</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -987,16 +987,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.5542008058180126</v>
+        <v>-0.6472298798955479</v>
       </c>
       <c r="C38">
-        <v>-2.151799058855593</v>
+        <v>0.09799113787797246</v>
       </c>
       <c r="D38">
-        <v>-2.155609226581009</v>
+        <v>0.09389244675171433</v>
       </c>
       <c r="E38">
-        <v>0.042680128487996856</v>
+        <v>3.2824447556895535</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1004,16 +1004,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-3.544078216134123</v>
+        <v>-0.6219301852765075</v>
       </c>
       <c r="C39">
-        <v>-2.146271149064081</v>
+        <v>0.09843982990665456</v>
       </c>
       <c r="D39">
-        <v>-2.1470051457463226</v>
+        <v>0.09348107478822316</v>
       </c>
       <c r="E39">
-        <v>0.34516227313060227</v>
+        <v>3.2700833714838073</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1021,16 +1021,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-3.5409153984798505</v>
+        <v>-0.6045426706226504</v>
       </c>
       <c r="C40">
-        <v>-2.143562136493825</v>
+        <v>0.11197357778624824</v>
       </c>
       <c r="D40">
-        <v>-2.1435680235480525</v>
+        <v>0.10313192466024229</v>
       </c>
       <c r="E40">
-        <v>0.07985100973031455</v>
+        <v>3.26413332806683</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1038,16 +1038,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>-3.540714183937203</v>
+        <v>-0.6100247062415506</v>
       </c>
       <c r="C41">
-        <v>-2.143280073682115</v>
+        <v>0.14805484809697275</v>
       </c>
       <c r="D41">
-        <v>-2.1432801431550956</v>
+        <v>0.13265728186639386</v>
       </c>
       <c r="E41">
-        <v>-0.2982233899645613</v>
+        <v>3.286639060333074</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1055,16 +1055,1155 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>-3.540697092868017</v>
+        <v>-5.001305816302652</v>
       </c>
       <c r="C42">
-        <v>-2.143258479303143</v>
+        <v>-2.8745669439593216</v>
       </c>
       <c r="D42">
-        <v>-2.14325848770303</v>
+        <v>-2.8753349672620527</v>
       </c>
       <c r="E42">
-        <v>-0.39822136336898234</v>
+        <v>-3.2952720813970067</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>-5.001115364586281</v>
+      </c>
+      <c r="C43">
+        <v>-2.8745544805967924</v>
+      </c>
+      <c r="D43">
+        <v>-2.875322657295985</v>
+      </c>
+      <c r="E43">
+        <v>-3.2592383318308977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>-5.001333943228561</v>
+      </c>
+      <c r="C44">
+        <v>-2.8745425337585795</v>
+      </c>
+      <c r="D44">
+        <v>-2.8753102866464078</v>
+      </c>
+      <c r="E44">
+        <v>-3.2237210523828095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>-5.001878065114763</v>
+      </c>
+      <c r="C45">
+        <v>-2.874530638649713</v>
+      </c>
+      <c r="D45">
+        <v>-2.8752975057757966</v>
+      </c>
+      <c r="E45">
+        <v>-3.1877805477794796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>-5.002655485419617</v>
+      </c>
+      <c r="C46">
+        <v>-2.874518720473387</v>
+      </c>
+      <c r="D46">
+        <v>-2.8752841305378727</v>
+      </c>
+      <c r="E46">
+        <v>-3.15151762493334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>-5.003513782609707</v>
+      </c>
+      <c r="C47">
+        <v>-2.874507028581698</v>
+      </c>
+      <c r="D47">
+        <v>-2.8752693681176074</v>
+      </c>
+      <c r="E47">
+        <v>-3.113733181790536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>-5.004411997148452</v>
+      </c>
+      <c r="C48">
+        <v>-2.8744970186680203</v>
+      </c>
+      <c r="D48">
+        <v>-2.875251140314291</v>
+      </c>
+      <c r="E48">
+        <v>-3.073124584710312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>-5.005417716214296</v>
+      </c>
+      <c r="C49">
+        <v>-2.874484720717825</v>
+      </c>
+      <c r="D49">
+        <v>-2.8752325895321587</v>
+      </c>
+      <c r="E49">
+        <v>-3.030183525824866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>-0.6743441530568403</v>
+      </c>
+      <c r="C50">
+        <v>-0.18022588905582745</v>
+      </c>
+      <c r="D50">
+        <v>-0.18472647981173967</v>
+      </c>
+      <c r="E50">
+        <v>3.150840812479011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>-0.674365121401216</v>
+      </c>
+      <c r="C51">
+        <v>-0.18025101909363775</v>
+      </c>
+      <c r="D51">
+        <v>-0.1846882214799867</v>
+      </c>
+      <c r="E51">
+        <v>3.150914249246712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>-0.6743857601418833</v>
+      </c>
+      <c r="C52">
+        <v>-0.18024947145131717</v>
+      </c>
+      <c r="D52">
+        <v>-0.18467527583463988</v>
+      </c>
+      <c r="E52">
+        <v>3.1509346799835747</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>-0.6743973530879008</v>
+      </c>
+      <c r="C53">
+        <v>-0.18025480086363962</v>
+      </c>
+      <c r="D53">
+        <v>-0.1846608464030624</v>
+      </c>
+      <c r="E53">
+        <v>3.1509609726279457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>-0.6744085311818981</v>
+      </c>
+      <c r="C54">
+        <v>-0.18025471305530077</v>
+      </c>
+      <c r="D54">
+        <v>-0.18464919767870308</v>
+      </c>
+      <c r="E54">
+        <v>3.1509800229806455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>-0.6744165840490787</v>
+      </c>
+      <c r="C55">
+        <v>-0.1802509016384792</v>
+      </c>
+      <c r="D55">
+        <v>-0.1846400063046395</v>
+      </c>
+      <c r="E55">
+        <v>3.1509943117824317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>-0.6744246988905364</v>
+      </c>
+      <c r="C56">
+        <v>-0.18024443193485534</v>
+      </c>
+      <c r="D56">
+        <v>-0.18462953066521573</v>
+      </c>
+      <c r="E56">
+        <v>3.1510102016226895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>-0.6744328639849134</v>
+      </c>
+      <c r="C57">
+        <v>-0.1802336649511262</v>
+      </c>
+      <c r="D57">
+        <v>-0.18461722620948562</v>
+      </c>
+      <c r="E57">
+        <v>3.1510290472193234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>-0.6744415817246187</v>
+      </c>
+      <c r="C58">
+        <v>-0.18021749218101554</v>
+      </c>
+      <c r="D58">
+        <v>-0.18460259573174354</v>
+      </c>
+      <c r="E58">
+        <v>3.1510517670436426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>-0.6744510278675347</v>
+      </c>
+      <c r="C59">
+        <v>-0.18019457924418744</v>
+      </c>
+      <c r="D59">
+        <v>-0.18458543605476999</v>
+      </c>
+      <c r="E59">
+        <v>3.1510785121321816</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>-0.6744617760591691</v>
+      </c>
+      <c r="C60">
+        <v>-0.18016360404372564</v>
+      </c>
+      <c r="D60">
+        <v>-0.18456478725301168</v>
+      </c>
+      <c r="E60">
+        <v>3.151110450304235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>-5.123452753086634</v>
+      </c>
+      <c r="C61">
+        <v>-2.8748920938805127</v>
+      </c>
+      <c r="D61">
+        <v>-2.8754741971731934</v>
+      </c>
+      <c r="E61">
+        <v>-3.2987932409658898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>-5.126304150571263</v>
+      </c>
+      <c r="C62">
+        <v>-2.874921640327572</v>
+      </c>
+      <c r="D62">
+        <v>-2.875447209936076</v>
+      </c>
+      <c r="E62">
+        <v>-3.307415990697828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>-5.130346510557017</v>
+      </c>
+      <c r="C63">
+        <v>-2.8749683406269977</v>
+      </c>
+      <c r="D63">
+        <v>-2.8754062403827367</v>
+      </c>
+      <c r="E63">
+        <v>-3.3090611783856905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>-5.119954260120054</v>
+      </c>
+      <c r="C64">
+        <v>-2.874978588048949</v>
+      </c>
+      <c r="D64">
+        <v>-2.8753373250842422</v>
+      </c>
+      <c r="E64">
+        <v>-1.3962966883209829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>-5.075516681805538</v>
+      </c>
+      <c r="C65">
+        <v>-2.8747922756625233</v>
+      </c>
+      <c r="D65">
+        <v>-2.875196884397523</v>
+      </c>
+      <c r="E65">
+        <v>-2.1188054041142794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>-5.079978396019327</v>
+      </c>
+      <c r="C66">
+        <v>-2.8748090339111942</v>
+      </c>
+      <c r="D66">
+        <v>-2.8752025785423534</v>
+      </c>
+      <c r="E66">
+        <v>-2.139602278492647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>-5.083306854727261</v>
+      </c>
+      <c r="C67">
+        <v>-2.874811241259214</v>
+      </c>
+      <c r="D67">
+        <v>-2.875199636811873</v>
+      </c>
+      <c r="E67">
+        <v>-2.1546478401640625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>-5.087082057074717</v>
+      </c>
+      <c r="C68">
+        <v>-2.8747978863669084</v>
+      </c>
+      <c r="D68">
+        <v>-2.875187478578638</v>
+      </c>
+      <c r="E68">
+        <v>-2.1473816378084614</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>-5.098970304405631</v>
+      </c>
+      <c r="C72">
+        <v>-2.8749157592234686</v>
+      </c>
+      <c r="D72">
+        <v>-2.8753667913978926</v>
+      </c>
+      <c r="E72">
+        <v>-2.4730845534395636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>-5.1029422152165775</v>
+      </c>
+      <c r="C73">
+        <v>-2.8749043452342913</v>
+      </c>
+      <c r="D73">
+        <v>-2.8753611910463595</v>
+      </c>
+      <c r="E73">
+        <v>-2.430525448657556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>-5.10781257493926</v>
+      </c>
+      <c r="C74">
+        <v>-2.874893065427585</v>
+      </c>
+      <c r="D74">
+        <v>-2.8753567071536414</v>
+      </c>
+      <c r="E74">
+        <v>-2.4061641275881755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>-5.112638485163422</v>
+      </c>
+      <c r="C75">
+        <v>-2.87486509999929</v>
+      </c>
+      <c r="D75">
+        <v>-2.8753450582732474</v>
+      </c>
+      <c r="E75">
+        <v>-2.326549525680515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>-6.156138676665128</v>
+      </c>
+      <c r="C100">
+        <v>-3.477180541738709</v>
+      </c>
+      <c r="D100">
+        <v>-3.4775366198187383</v>
+      </c>
+      <c r="E100">
+        <v>-3.7169657111397956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>-6.156728853001061</v>
+      </c>
+      <c r="C101">
+        <v>-3.477179294683774</v>
+      </c>
+      <c r="D101">
+        <v>-3.4775322325302973</v>
+      </c>
+      <c r="E101">
+        <v>-3.6890452394496207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>-6.157447311832097</v>
+      </c>
+      <c r="C102">
+        <v>-3.477178380609847</v>
+      </c>
+      <c r="D102">
+        <v>-3.4775275691172727</v>
+      </c>
+      <c r="E102">
+        <v>-3.6617252318702933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>-6.158282664201223</v>
+      </c>
+      <c r="C103">
+        <v>-3.477177816372163</v>
+      </c>
+      <c r="D103">
+        <v>-3.4775226290368644</v>
+      </c>
+      <c r="E103">
+        <v>-3.635817355813874</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>-6.159396059299605</v>
+      </c>
+      <c r="C104">
+        <v>-3.477177594521671</v>
+      </c>
+      <c r="D104">
+        <v>-3.477517195306135</v>
+      </c>
+      <c r="E104">
+        <v>-3.6090188634973077</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>-6.257329344194108</v>
+      </c>
+      <c r="C105">
+        <v>-3.477273890529913</v>
+      </c>
+      <c r="D105">
+        <v>-3.47768616852751</v>
+      </c>
+      <c r="E105">
+        <v>-4.489191934107898</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>-6.162785684966413</v>
+      </c>
+      <c r="C106">
+        <v>-3.4771779569571284</v>
+      </c>
+      <c r="D106">
+        <v>-3.4775047039589535</v>
+      </c>
+      <c r="E106">
+        <v>-3.553627908734409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>-6.258480249733476</v>
+      </c>
+      <c r="C107">
+        <v>-3.477275134571262</v>
+      </c>
+      <c r="D107">
+        <v>-3.4776811948964967</v>
+      </c>
+      <c r="E107">
+        <v>-4.4204712504965</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>-6.168077865887291</v>
+      </c>
+      <c r="C108">
+        <v>-3.4771794325569885</v>
+      </c>
+      <c r="D108">
+        <v>-3.4774895513059425</v>
+      </c>
+      <c r="E108">
+        <v>-3.4968969060193307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>-6.260242595072452</v>
+      </c>
+      <c r="C109">
+        <v>-3.4772766152399384</v>
+      </c>
+      <c r="D109">
+        <v>-3.4776749993434395</v>
+      </c>
+      <c r="E109">
+        <v>-4.342039482185038</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>-6.175742062318302</v>
+      </c>
+      <c r="C110">
+        <v>-3.4771822179912513</v>
+      </c>
+      <c r="D110">
+        <v>-3.4774708544682125</v>
+      </c>
+      <c r="E110">
+        <v>-3.4388606714793255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>-6.26268540339213</v>
+      </c>
+      <c r="C111">
+        <v>-3.4772783663921367</v>
+      </c>
+      <c r="D111">
+        <v>-3.4776674557607627</v>
+      </c>
+      <c r="E111">
+        <v>-4.258243012967851</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>-6.186599559465562</v>
+      </c>
+      <c r="C112">
+        <v>-3.4771857541190823</v>
+      </c>
+      <c r="D112">
+        <v>-3.477447920872536</v>
+      </c>
+      <c r="E112">
+        <v>-3.3757159585265946</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>-6.265623987378799</v>
+      </c>
+      <c r="C113">
+        <v>-3.4772805935472966</v>
+      </c>
+      <c r="D113">
+        <v>-3.4776587154616245</v>
+      </c>
+      <c r="E113">
+        <v>-4.178317961560873</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>-6.200730954894246</v>
+      </c>
+      <c r="C114">
+        <v>-3.4771888939115705</v>
+      </c>
+      <c r="D114">
+        <v>-3.4774212351507283</v>
+      </c>
+      <c r="E114">
+        <v>-3.3054038172920954</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>-6.26853250803579</v>
+      </c>
+      <c r="C115">
+        <v>-3.477283780825128</v>
+      </c>
+      <c r="D115">
+        <v>-3.4776493999875067</v>
+      </c>
+      <c r="E115">
+        <v>-4.115094647962222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>-6.216602114382655</v>
+      </c>
+      <c r="C116">
+        <v>-3.477191152282503</v>
+      </c>
+      <c r="D116">
+        <v>-3.4773929964603356</v>
+      </c>
+      <c r="E116">
+        <v>-3.231956435669094</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>-6.270814820931743</v>
+      </c>
+      <c r="C117">
+        <v>-3.477288362550029</v>
+      </c>
+      <c r="D117">
+        <v>-3.4776403408866545</v>
+      </c>
+      <c r="E117">
+        <v>-4.077979326585693</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>-6.234564198081047</v>
+      </c>
+      <c r="C118">
+        <v>-3.4772156728529993</v>
+      </c>
+      <c r="D118">
+        <v>-3.4774877976647276</v>
+      </c>
+      <c r="E118">
+        <v>-3.482299248199882</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>-6.27241427341039</v>
+      </c>
+      <c r="C119">
+        <v>-3.4772944946523583</v>
+      </c>
+      <c r="D119">
+        <v>-3.4776317594640913</v>
+      </c>
+      <c r="E119">
+        <v>-4.065619051872528</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>-6.237719802590152</v>
+      </c>
+      <c r="C120">
+        <v>-3.477218709709703</v>
+      </c>
+      <c r="D120">
+        <v>-3.4774766404509774</v>
+      </c>
+      <c r="E120">
+        <v>-3.4668834415217367</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>-6.2738515643468675</v>
+      </c>
+      <c r="C121">
+        <v>-3.4773022877497195</v>
+      </c>
+      <c r="D121">
+        <v>-3.4776229519821267</v>
+      </c>
+      <c r="E121">
+        <v>-4.068111748586225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>-6.238558051683922</v>
+      </c>
+      <c r="C122">
+        <v>-3.47722417839344</v>
+      </c>
+      <c r="D122">
+        <v>-3.477467703912168</v>
+      </c>
+      <c r="E122">
+        <v>-3.4683063668984966</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>-6.275716879050839</v>
+      </c>
+      <c r="C123">
+        <v>-3.477312335680099</v>
+      </c>
+      <c r="D123">
+        <v>-3.477612717080531</v>
+      </c>
+      <c r="E123">
+        <v>-4.075903424470435</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>-6.2393958808175025</v>
+      </c>
+      <c r="C124">
+        <v>-3.4772330836411034</v>
+      </c>
+      <c r="D124">
+        <v>-3.477457254219096</v>
+      </c>
+      <c r="E124">
+        <v>-3.4783181840762687</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>-6.27842675508972</v>
+      </c>
+      <c r="C125">
+        <v>-3.477326525448755</v>
+      </c>
+      <c r="D125">
+        <v>-3.477599195123701</v>
+      </c>
+      <c r="E125">
+        <v>-4.083056861962384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>-6.2423447743119125</v>
+      </c>
+      <c r="C126">
+        <v>-3.4772492463721343</v>
+      </c>
+      <c r="D126">
+        <v>-3.4774403624052104</v>
+      </c>
+      <c r="E126">
+        <v>-3.49030073366037</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>-6.282567263065603</v>
+      </c>
+      <c r="C127">
+        <v>-3.477352156248358</v>
+      </c>
+      <c r="D127">
+        <v>-3.4775754212653847</v>
+      </c>
+      <c r="E127">
+        <v>-4.0693227026593135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>-6.279130566006017</v>
+      </c>
+      <c r="C128">
+        <v>-3.4773636161749333</v>
+      </c>
+      <c r="D128">
+        <v>-3.4775551266349765</v>
+      </c>
+      <c r="E128">
+        <v>-2.3288533664428015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>-1.7200762670808243</v>
+      </c>
+      <c r="C129">
+        <v>0.12325375618219979</v>
+      </c>
+      <c r="D129">
+        <v>0.08967102956199993</v>
+      </c>
+      <c r="E129">
+        <v>3.6953909558704043</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>-6.22061305879276</v>
+      </c>
+      <c r="C130">
+        <v>-3.477314917231075</v>
+      </c>
+      <c r="D130">
+        <v>-3.4774717398475863</v>
+      </c>
+      <c r="E130">
+        <v>-2.5822121112583214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>-1.7019984134219057</v>
+      </c>
+      <c r="C131">
+        <v>0.14509844472318775</v>
+      </c>
+      <c r="D131">
+        <v>0.1278297573170705</v>
+      </c>
+      <c r="E131">
+        <v>3.5698502444740106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>-6.22657879597302</v>
+      </c>
+      <c r="C132">
+        <v>-3.4773184082618838</v>
+      </c>
+      <c r="D132">
+        <v>-3.477470019392037</v>
+      </c>
+      <c r="E132">
+        <v>-2.607785788048717</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>-6.230295034117324</v>
+      </c>
+      <c r="C134">
+        <v>-3.477317745436011</v>
+      </c>
+      <c r="D134">
+        <v>-3.4774680114494783</v>
+      </c>
+      <c r="E134">
+        <v>-2.632956445801669</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>-6.234215507362045</v>
+      </c>
+      <c r="C136">
+        <v>-3.4773119568104</v>
+      </c>
+      <c r="D136">
+        <v>-3.4774634429383644</v>
+      </c>
+      <c r="E136">
+        <v>-2.654133870790833</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>-6.232640785645222</v>
+      </c>
+      <c r="C138">
+        <v>-3.477309922393301</v>
+      </c>
+      <c r="D138">
+        <v>-3.4774615578087675</v>
+      </c>
+      <c r="E138">
+        <v>-2.721872467040342</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>-6.228014840941545</v>
+      </c>
+      <c r="C140">
+        <v>-3.4773118323313774</v>
+      </c>
+      <c r="D140">
+        <v>-3.4774634715687367</v>
+      </c>
+      <c r="E140">
+        <v>-2.797046423368725</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/plate_with_hole_linear_mix.xlsx
+++ b/xlsx/plate_with_hole_linear_mix.xlsx
@@ -375,16 +375,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-3.502996277866446</v>
+        <v>-2.8774921992411677</v>
       </c>
       <c r="C2">
-        <v>-1.3353641051018224</v>
+        <v>-1.5649639854570911</v>
       </c>
       <c r="D2">
-        <v>-1.4093277970600366</v>
+        <v>-1.8508683728006357</v>
       </c>
       <c r="E2">
-        <v>-3.213297522185786</v>
+        <v>-1.806012682410537</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -392,16 +392,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-3.507995491044646</v>
+        <v>-3.7544195045335096</v>
       </c>
       <c r="C3">
-        <v>-1.3353660054573673</v>
+        <v>-2.163088301940175</v>
       </c>
       <c r="D3">
-        <v>-1.4093241532528973</v>
+        <v>-2.4178411442620935</v>
       </c>
       <c r="E3">
-        <v>-3.176658647717771</v>
+        <v>-2.364443941261657</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -409,16 +409,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-3.509775525130635</v>
+        <v>-4.487774612910093</v>
       </c>
       <c r="C4">
-        <v>-1.3353463152586642</v>
+        <v>-2.7236795464814225</v>
       </c>
       <c r="D4">
-        <v>-1.409313847197049</v>
+        <v>-2.9712614134264084</v>
       </c>
       <c r="E4">
-        <v>-3.127265644039588</v>
+        <v>-2.9939887951592454</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -426,16 +426,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-3.5107649774111054</v>
+        <v>-5.086419390631333</v>
       </c>
       <c r="C5">
-        <v>-1.3353246894129243</v>
+        <v>-3.036938720304245</v>
       </c>
       <c r="D5">
-        <v>-1.4093033017145298</v>
+        <v>-3.2055095287226694</v>
       </c>
       <c r="E5">
-        <v>-3.0872042255589616</v>
+        <v>-3.527894475451537</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -443,16 +443,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-3.511383679406551</v>
+        <v>-5.369238749220256</v>
       </c>
       <c r="C6">
-        <v>-1.3353019249913787</v>
+        <v>-3.10013795193025</v>
       </c>
       <c r="D6">
-        <v>-1.4092922450961103</v>
+        <v>-3.238173246909152</v>
       </c>
       <c r="E6">
-        <v>-3.0519328037600477</v>
+        <v>-3.815493155325592</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -460,16 +460,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-3.5118125836814515</v>
+        <v>-5.4875086626406215</v>
       </c>
       <c r="C7">
-        <v>-1.3352782339875466</v>
+        <v>-3.1191129054975386</v>
       </c>
       <c r="D7">
-        <v>-1.409280855793281</v>
+        <v>-3.2480246094550593</v>
       </c>
       <c r="E7">
-        <v>-3.020506684417785</v>
+        <v>-4.163816688490697</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -477,16 +477,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-3.512127464048598</v>
+        <v>-5.5076897155092635</v>
       </c>
       <c r="C8">
-        <v>-1.3352543162280588</v>
+        <v>-3.122095543364345</v>
       </c>
       <c r="D8">
-        <v>-1.409269367183546</v>
+        <v>-3.2495589904289393</v>
       </c>
       <c r="E8">
-        <v>-2.992406632464837</v>
+        <v>-4.368574668017742</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -494,16 +494,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-3.5123749048061246</v>
+        <v>-5.513577970724902</v>
       </c>
       <c r="C9">
-        <v>-1.335228939395894</v>
+        <v>-3.1231634408415028</v>
       </c>
       <c r="D9">
-        <v>-1.4092572400589676</v>
+        <v>-3.250109753867215</v>
       </c>
       <c r="E9">
-        <v>-2.9657920605638988</v>
+        <v>-4.548600276624799</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -511,16 +511,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-3.5125672124711182</v>
+        <v>-5.514922220141571</v>
       </c>
       <c r="C10">
-        <v>-1.3352060864352393</v>
+        <v>-3.1234624106050677</v>
       </c>
       <c r="D10">
-        <v>-1.4092462546651439</v>
+        <v>-3.250261692215001</v>
       </c>
       <c r="E10">
-        <v>-2.9435250554839367</v>
+        <v>-4.649409352854815</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -528,16 +528,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-3.512739682350344</v>
+        <v>-5.515378602098886</v>
       </c>
       <c r="C11">
-        <v>-1.3351757046737416</v>
+        <v>-3.123568461933448</v>
       </c>
       <c r="D11">
-        <v>-1.4092318668069175</v>
+        <v>-3.250310487687556</v>
       </c>
       <c r="E11">
-        <v>-2.9171963301453725</v>
+        <v>-4.69188768636333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -545,16 +545,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-3.5129154986036775</v>
+        <v>-5.515484144196571</v>
       </c>
       <c r="C12">
-        <v>-1.3351397140414654</v>
+        <v>-3.123578216168984</v>
       </c>
       <c r="D12">
-        <v>-1.4092149289733535</v>
+        <v>-3.250311152073271</v>
       </c>
       <c r="E12">
-        <v>-2.8892712086517456</v>
+        <v>-4.692561046968237</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -562,16 +562,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-3.5130603276392045</v>
+        <v>-5.515470341227584</v>
       </c>
       <c r="C13">
-        <v>-1.3351237071313802</v>
+        <v>-3.1235756973726003</v>
       </c>
       <c r="D13">
-        <v>-1.409207151604487</v>
+        <v>-3.250298436566579</v>
       </c>
       <c r="E13">
-        <v>-2.8764818621746397</v>
+        <v>-4.678250219361063</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -579,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-3.5131488433817375</v>
+        <v>-5.515514929330357</v>
       </c>
       <c r="C14">
-        <v>-1.3351075932305614</v>
+        <v>-3.12357687805621</v>
       </c>
       <c r="D14">
-        <v>-1.4091992153617696</v>
+        <v>-3.250279810511922</v>
       </c>
       <c r="E14">
-        <v>-2.8631786893751254</v>
+        <v>-4.659993791287008</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -596,16 +596,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-3.5132580112163567</v>
+        <v>-5.515296437576173</v>
       </c>
       <c r="C15">
-        <v>-1.3350710649811006</v>
+        <v>-3.1234661734274884</v>
       </c>
       <c r="D15">
-        <v>-1.4091819582131537</v>
+        <v>-3.250201822946575</v>
       </c>
       <c r="E15">
-        <v>-2.8379626384933885</v>
+        <v>-4.5922055653856235</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -613,16 +613,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-3.9429482597042087</v>
+        <v>-5.515147307734484</v>
       </c>
       <c r="C16">
-        <v>-2.271117458727889</v>
+        <v>-3.123378897905334</v>
       </c>
       <c r="D16">
-        <v>-2.2724460368195714</v>
+        <v>-3.250127309219586</v>
       </c>
       <c r="E16">
-        <v>-2.6969790691439703</v>
+        <v>-4.542025006575962</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -630,16 +630,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-3.9353178644507274</v>
+        <v>-5.514946483953361</v>
       </c>
       <c r="C17">
-        <v>-2.2709948095028976</v>
+        <v>-3.1231823632547306</v>
       </c>
       <c r="D17">
-        <v>-2.2723568112917896</v>
+        <v>-3.2499945834687907</v>
       </c>
       <c r="E17">
-        <v>-2.6358422928745977</v>
+        <v>-4.467525581519223</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -647,16 +647,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-3.928142278655123</v>
+        <v>-5.514796597800169</v>
       </c>
       <c r="C18">
-        <v>-2.2708673223376477</v>
+        <v>-3.123210686779517</v>
       </c>
       <c r="D18">
-        <v>-2.272259512710138</v>
+        <v>-3.2499944850759754</v>
       </c>
       <c r="E18">
-        <v>-2.565824395735494</v>
+        <v>-4.4611476066192655</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -664,16 +664,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-3.920935134307709</v>
+        <v>-5.514574215623546</v>
       </c>
       <c r="C19">
-        <v>-2.2707339358902465</v>
+        <v>-3.1228975106549983</v>
       </c>
       <c r="D19">
-        <v>-2.2721503137416965</v>
+        <v>-3.2497793619790594</v>
       </c>
       <c r="E19">
-        <v>-2.4863529031751703</v>
+        <v>-4.365271324094989</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -681,16 +681,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-3.913944307543518</v>
+        <v>-5.51427020865549</v>
       </c>
       <c r="C20">
-        <v>-2.270590062707213</v>
+        <v>-3.122203796101006</v>
       </c>
       <c r="D20">
-        <v>-2.272029931177685</v>
+        <v>-3.2492819367851733</v>
       </c>
       <c r="E20">
-        <v>-2.400542897225231</v>
+        <v>-4.214989320585287</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -698,16 +698,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>-3.908140738469824</v>
+        <v>-5.514082982187538</v>
       </c>
       <c r="C21">
-        <v>-2.270435064845409</v>
+        <v>-3.1222593910395386</v>
       </c>
       <c r="D21">
-        <v>-2.2719074983720473</v>
+        <v>-3.2493163780151573</v>
       </c>
       <c r="E21">
-        <v>-2.3134574300166113</v>
+        <v>-4.219578856110312</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -715,16 +715,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-3.904760765368581</v>
+        <v>-5.513653434139896</v>
       </c>
       <c r="C22">
-        <v>-2.2702723110497818</v>
+        <v>-3.1211705524925035</v>
       </c>
       <c r="D22">
-        <v>-2.271789456278106</v>
+        <v>-3.2485211502464475</v>
       </c>
       <c r="E22">
-        <v>-2.2296581272584706</v>
+        <v>-4.064156458633816</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -732,16 +732,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>-3.903818165776133</v>
+        <v>-5.513647340905423</v>
       </c>
       <c r="C23">
-        <v>-2.270107630714369</v>
+        <v>-3.121258056910645</v>
       </c>
       <c r="D23">
-        <v>-2.27167150882425</v>
+        <v>-3.2485137747139476</v>
       </c>
       <c r="E23">
-        <v>-2.147294007644464</v>
+        <v>-4.05356781406456</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -749,16 +749,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>-3.904147779043677</v>
+        <v>-5.513077537766994</v>
       </c>
       <c r="C24">
-        <v>-2.269945946794804</v>
+        <v>-3.1202397023238495</v>
       </c>
       <c r="D24">
-        <v>-2.271524856234907</v>
+        <v>-3.2477592995363387</v>
       </c>
       <c r="E24">
-        <v>-2.054962217706594</v>
+        <v>-3.948634666906395</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -766,16 +766,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>-3.906330664813579</v>
+        <v>-5.512842177972828</v>
       </c>
       <c r="C25">
-        <v>-2.2697896288974047</v>
+        <v>-3.1206085601198628</v>
       </c>
       <c r="D25">
-        <v>-2.2713432367436366</v>
+        <v>-3.247912533173488</v>
       </c>
       <c r="E25">
-        <v>-1.9542467808684796</v>
+        <v>-3.9530275875124277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -783,16 +783,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>-3.911602181196641</v>
+        <v>-5.5117875940384655</v>
       </c>
       <c r="C26">
-        <v>-2.269653239495437</v>
+        <v>-3.1183087704345227</v>
       </c>
       <c r="D26">
-        <v>-2.2711114544548887</v>
+        <v>-3.2460659133502148</v>
       </c>
       <c r="E26">
-        <v>-1.855380066789952</v>
+        <v>-3.772725341926903</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -800,16 +800,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-3.9230859445453996</v>
+        <v>-5.50973535722783</v>
       </c>
       <c r="C27">
-        <v>-2.269494426048764</v>
+        <v>-3.1194313791658796</v>
       </c>
       <c r="D27">
-        <v>-2.2707844188131725</v>
+        <v>-3.2469315678506625</v>
       </c>
       <c r="E27">
-        <v>-1.7436748381476206</v>
+        <v>-3.8243751973874716</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -817,16 +817,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-4.022259964067133</v>
+        <v>-5.506190514139004</v>
       </c>
       <c r="C28">
-        <v>-2.271367829434012</v>
+        <v>-3.114860243194529</v>
       </c>
       <c r="D28">
-        <v>-2.2726750480406515</v>
+        <v>-3.243650840670897</v>
       </c>
       <c r="E28">
-        <v>-2.434524031097886</v>
+        <v>-3.6268410849268315</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -834,16 +834,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-4.003503637312744</v>
+        <v>-5.500633824136083</v>
       </c>
       <c r="C29">
-        <v>-2.2689069077229176</v>
+        <v>-3.1079429145518964</v>
       </c>
       <c r="D29">
-        <v>-2.269549240018737</v>
+        <v>-3.2386325221386603</v>
       </c>
       <c r="E29">
-        <v>-1.445773692562725</v>
+        <v>-3.463142739044693</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -851,16 +851,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-4.0589289165994344</v>
+        <v>-5.481914180075701</v>
       </c>
       <c r="C30">
-        <v>-2.268632512452395</v>
+        <v>-3.088500260029469</v>
       </c>
       <c r="D30">
-        <v>-2.268988028831919</v>
+        <v>-3.225637498728821</v>
       </c>
       <c r="E30">
-        <v>-1.3406365844996704</v>
+        <v>-3.2693158161691622</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -868,16 +868,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-4.066870438589974</v>
+        <v>-5.440516267843308</v>
       </c>
       <c r="C31">
-        <v>-2.2686202754697975</v>
+        <v>-3.048750302170353</v>
       </c>
       <c r="D31">
-        <v>-2.268810980546527</v>
+        <v>-3.1973129452660958</v>
       </c>
       <c r="E31">
-        <v>-1.3235118422686656</v>
+        <v>-2.989457980469487</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -885,16 +885,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-4.060925761540189</v>
+        <v>-4.505772981175902</v>
       </c>
       <c r="C32">
-        <v>-2.268574019499326</v>
+        <v>-2.580384547389531</v>
       </c>
       <c r="D32">
-        <v>-2.268783536376519</v>
+        <v>-2.630823242093993</v>
       </c>
       <c r="E32">
-        <v>-0.9473002671284537</v>
+        <v>-1.0045604626751</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -902,16 +902,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-3.9637599822520255</v>
+        <v>-4.4137244411035885</v>
       </c>
       <c r="C33">
-        <v>-2.2659089069337006</v>
+        <v>-2.4746494519613607</v>
       </c>
       <c r="D33">
-        <v>-2.266087694720344</v>
+        <v>-2.5027806892306166</v>
       </c>
       <c r="E33">
-        <v>0.37435688257217714</v>
+        <v>-0.7556396985355153</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -919,16 +919,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>-3.8767151499109365</v>
+        <v>-4.135327814135134</v>
       </c>
       <c r="C34">
-        <v>-2.264615096311006</v>
+        <v>-2.310981874676659</v>
       </c>
       <c r="D34">
-        <v>-2.264924103576813</v>
+        <v>-2.3262745607594475</v>
       </c>
       <c r="E34">
-        <v>-0.017805980283446883</v>
+        <v>-0.35388108014158376</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -936,16 +936,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-3.812487005553555</v>
+        <v>-3.970869710284773</v>
       </c>
       <c r="C35">
-        <v>-2.2618031515839125</v>
+        <v>-2.2377881970819375</v>
       </c>
       <c r="D35">
-        <v>-2.261985605898547</v>
+        <v>-2.2530995680536114</v>
       </c>
       <c r="E35">
-        <v>0.06276899176686804</v>
+        <v>-0.5530850945005977</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -953,16 +953,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>-4.003759122475385</v>
+        <v>-3.9001190943100927</v>
       </c>
       <c r="C36">
-        <v>-2.271823716933759</v>
+        <v>-2.19534344437396</v>
       </c>
       <c r="D36">
-        <v>-2.272128121471077</v>
+        <v>-2.2066381994232107</v>
       </c>
       <c r="E36">
-        <v>-1.2915750630779421</v>
+        <v>-0.1338864186123332</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -970,16 +970,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>-0.6884016147619946</v>
+        <v>-3.8443853921171183</v>
       </c>
       <c r="C37">
-        <v>0.10073218087004857</v>
+        <v>-2.1672831417386225</v>
       </c>
       <c r="D37">
-        <v>0.09725912752353907</v>
+        <v>-2.1746426169106408</v>
       </c>
       <c r="E37">
-        <v>3.3075410683188355</v>
+        <v>0.02042095419276724</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -987,16 +987,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-0.6472298798955479</v>
+        <v>-3.8046364865743567</v>
       </c>
       <c r="C38">
-        <v>0.09799113787797246</v>
+        <v>-2.1507164119853863</v>
       </c>
       <c r="D38">
-        <v>0.09389244675171433</v>
+        <v>-2.1541796648417733</v>
       </c>
       <c r="E38">
-        <v>3.2824447556895535</v>
+        <v>0.14393299686478786</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1004,16 +1004,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-0.6219301852765075</v>
+        <v>-3.786341980848449</v>
       </c>
       <c r="C39">
-        <v>0.09843982990665456</v>
+        <v>-2.144453174154167</v>
       </c>
       <c r="D39">
-        <v>0.09348107478822316</v>
+        <v>-2.1447132478364157</v>
       </c>
       <c r="E39">
-        <v>3.2700833714838073</v>
+        <v>0.252963815945837</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1021,16 +1021,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-0.6045426706226504</v>
+        <v>-3.784024357344221</v>
       </c>
       <c r="C40">
-        <v>0.11197357778624824</v>
+        <v>-2.143227470959688</v>
       </c>
       <c r="D40">
-        <v>0.10313192466024229</v>
+        <v>-2.1432291310914615</v>
       </c>
       <c r="E40">
-        <v>3.26413332806683</v>
+        <v>-0.050081388972793094</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1038,16 +1038,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>-0.6100247062415506</v>
+        <v>-3.783833207015698</v>
       </c>
       <c r="C41">
-        <v>0.14805484809697275</v>
+        <v>-2.1430974386619557</v>
       </c>
       <c r="D41">
-        <v>0.13265728186639386</v>
+        <v>-2.1430974620531664</v>
       </c>
       <c r="E41">
-        <v>3.286639060333074</v>
+        <v>-0.34791562514478575</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1055,16 +1055,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>-5.001305816302652</v>
+        <v>-3.7838106706108974</v>
       </c>
       <c r="C42">
-        <v>-2.8745669439593216</v>
+        <v>-2.1430843428171373</v>
       </c>
       <c r="D42">
-        <v>-2.8753349672620527</v>
+        <v>-2.1430843441779763</v>
       </c>
       <c r="E42">
-        <v>-3.2952720813970067</v>
+        <v>-0.41001370042861296</v>
       </c>
     </row>
     <row r="43" spans="1:5">

--- a/xlsx/plate_with_hole_linear_mix.xlsx
+++ b/xlsx/plate_with_hole_linear_mix.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52557D8-66CF-4DFB-B979-CB1B84822B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21075" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,42 +12,379 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -61,27 +392,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -127,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -162,7 +786,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -336,38 +960,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-3.4738351130017215</v>
+        <v>-1.9049937167781323</v>
       </c>
       <c r="C1">
-        <v>-1.3346497730898659</v>
+        <v>-0.8399701980707903</v>
       </c>
       <c r="D1">
-        <v>-1.4091821668448377</v>
+        <v>-1.242352686073374</v>
       </c>
       <c r="E1">
-        <v>-2.980051776324781</v>
+        <v>-1.3078786717664377</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -375,16 +996,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-2.8774921992411677</v>
+        <v>-2.877267605549408</v>
       </c>
       <c r="C2">
-        <v>-1.5649639854570911</v>
+        <v>-1.5648913418313752</v>
       </c>
       <c r="D2">
-        <v>-1.8508683728006357</v>
+        <v>-1.8511963527575395</v>
       </c>
       <c r="E2">
-        <v>-1.806012682410537</v>
+        <v>-1.8063786182067711</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -392,16 +1013,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-3.7544195045335096</v>
+        <v>-3.7546156619703264</v>
       </c>
       <c r="C3">
-        <v>-2.163088301940175</v>
+        <v>-2.1650619301367557</v>
       </c>
       <c r="D3">
-        <v>-2.4178411442620935</v>
+        <v>-2.4215537987489117</v>
       </c>
       <c r="E3">
-        <v>-2.364443941261657</v>
+        <v>-2.365078079780657</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -409,16 +1030,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-4.487774612910093</v>
+        <v>-4.490263295879633</v>
       </c>
       <c r="C4">
-        <v>-2.7236795464814225</v>
+        <v>-2.7486886545712657</v>
       </c>
       <c r="D4">
-        <v>-2.9712614134264084</v>
+        <v>-3.0172562214721323</v>
       </c>
       <c r="E4">
-        <v>-2.9939887951592454</v>
+        <v>-2.9946394233780094</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -426,16 +1047,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-5.086419390631333</v>
+        <v>-5.09919879201667</v>
       </c>
       <c r="C5">
-        <v>-3.036938720304245</v>
+        <v>-3.168895339150552</v>
       </c>
       <c r="D5">
-        <v>-3.2055095287226694</v>
+        <v>-3.3790285071891244</v>
       </c>
       <c r="E5">
-        <v>-3.527894475451537</v>
+        <v>-3.5292975438179326</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -443,16 +1064,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-5.369238749220256</v>
+        <v>-5.424704291492689</v>
       </c>
       <c r="C6">
-        <v>-3.10013795193025</v>
+        <v>-3.3071254012142073</v>
       </c>
       <c r="D6">
-        <v>-3.238173246909152</v>
+        <v>-3.4597711318979907</v>
       </c>
       <c r="E6">
-        <v>-3.815493155325592</v>
+        <v>-3.817055008857375</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -460,16 +1081,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-5.4875086626406215</v>
+        <v>-5.598934029358367</v>
       </c>
       <c r="C7">
-        <v>-3.1191129054975386</v>
+        <v>-3.3608849102414617</v>
       </c>
       <c r="D7">
-        <v>-3.2480246094550593</v>
+        <v>-3.4882335436960403</v>
       </c>
       <c r="E7">
-        <v>-4.163816688490697</v>
+        <v>-4.165001916180152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -477,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-5.5076897155092635</v>
+        <v>-5.634734443355143</v>
       </c>
       <c r="C8">
-        <v>-3.122095543364345</v>
+        <v>-3.3703240952761035</v>
       </c>
       <c r="D8">
-        <v>-3.2495589904289393</v>
+        <v>-3.492916323321762</v>
       </c>
       <c r="E8">
-        <v>-4.368574668017742</v>
+        <v>-4.369070017189851</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -494,16 +1115,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-5.513577970724902</v>
+        <v>-5.6460976570966785</v>
       </c>
       <c r="C9">
-        <v>-3.1231634408415028</v>
+        <v>-3.3737022172557047</v>
       </c>
       <c r="D9">
-        <v>-3.250109753867215</v>
+        <v>-3.494587301609577</v>
       </c>
       <c r="E9">
-        <v>-4.548600276624799</v>
+        <v>-4.545859152936442</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -511,16 +1132,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-5.514922220141571</v>
+        <v>-5.648951816168956</v>
       </c>
       <c r="C10">
-        <v>-3.1234624106050677</v>
+        <v>-3.374622277684223</v>
       </c>
       <c r="D10">
-        <v>-3.250261692215001</v>
+        <v>-3.4950459037224295</v>
       </c>
       <c r="E10">
-        <v>-4.649409352854815</v>
+        <v>-4.640349919809762</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -528,16 +1149,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-5.515378602098886</v>
+        <v>-5.650071423020763</v>
       </c>
       <c r="C11">
-        <v>-3.123568461933448</v>
+        <v>-3.374927213868626</v>
       </c>
       <c r="D11">
-        <v>-3.250310487687556</v>
+        <v>-3.4951879797799528</v>
       </c>
       <c r="E11">
-        <v>-4.69188768636333</v>
+        <v>-4.677347464891857</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -545,16 +1166,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-5.515484144196571</v>
+        <v>-5.650533584830615</v>
       </c>
       <c r="C12">
-        <v>-3.123578216168984</v>
+        <v>-3.3749850156901444</v>
       </c>
       <c r="D12">
-        <v>-3.250311152073271</v>
+        <v>-3.4952092500911505</v>
       </c>
       <c r="E12">
-        <v>-4.692561046968237</v>
+        <v>-4.684086479851992</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -562,16 +1183,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-5.515470341227584</v>
+        <v>-5.650676268265345</v>
       </c>
       <c r="C13">
-        <v>-3.1235756973726003</v>
+        <v>-3.3749101339720005</v>
       </c>
       <c r="D13">
-        <v>-3.250298436566579</v>
+        <v>-3.49515688970887</v>
       </c>
       <c r="E13">
-        <v>-4.678250219361063</v>
+        <v>-4.66628557883034</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -579,16 +1200,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-5.515514929330357</v>
+        <v>-5.650798121212957</v>
       </c>
       <c r="C14">
-        <v>-3.12357687805621</v>
+        <v>-3.3746472945111776</v>
       </c>
       <c r="D14">
-        <v>-3.250279810511922</v>
+        <v>-3.494994990446253</v>
       </c>
       <c r="E14">
-        <v>-4.659993791287008</v>
+        <v>-4.616955525002226</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -596,16 +1217,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-5.515296437576173</v>
+        <v>-5.650509052694038</v>
       </c>
       <c r="C15">
-        <v>-3.1234661734274884</v>
+        <v>-3.374325482634821</v>
       </c>
       <c r="D15">
-        <v>-3.250201822946575</v>
+        <v>-3.49480629786835</v>
       </c>
       <c r="E15">
-        <v>-4.5922055653856235</v>
+        <v>-4.569126373214647</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -613,16 +1234,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-5.515147307734484</v>
+        <v>-5.650296767438882</v>
       </c>
       <c r="C16">
-        <v>-3.123378897905334</v>
+        <v>-3.3739094758908683</v>
       </c>
       <c r="D16">
-        <v>-3.250127309219586</v>
+        <v>-3.494555361750802</v>
       </c>
       <c r="E16">
-        <v>-4.542025006575962</v>
+        <v>-4.5224785048108505</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -630,16 +1251,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-5.514946483953361</v>
+        <v>-5.650088106383263</v>
       </c>
       <c r="C17">
-        <v>-3.1231823632547306</v>
+        <v>-3.3733610802609975</v>
       </c>
       <c r="D17">
-        <v>-3.2499945834687907</v>
+        <v>-3.494229765092026</v>
       </c>
       <c r="E17">
-        <v>-4.467525581519223</v>
+        <v>-4.464711289907544</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -647,16 +1268,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-5.514796597800169</v>
+        <v>-5.649926958910381</v>
       </c>
       <c r="C18">
-        <v>-3.123210686779517</v>
+        <v>-3.3726771093966375</v>
       </c>
       <c r="D18">
-        <v>-3.2499944850759754</v>
+        <v>-3.4938270197379104</v>
       </c>
       <c r="E18">
-        <v>-4.4611476066192655</v>
+        <v>-4.400952854806243</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -664,16 +1285,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-5.514574215623546</v>
+        <v>-5.649816000431554</v>
       </c>
       <c r="C19">
-        <v>-3.1228975106549983</v>
+        <v>-3.3720270530604486</v>
       </c>
       <c r="D19">
-        <v>-3.2497793619790594</v>
+        <v>-3.4934398061103256</v>
       </c>
       <c r="E19">
-        <v>-4.365271324094989</v>
+        <v>-4.347779831767578</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -681,16 +1302,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-5.51427020865549</v>
+        <v>-5.64938134831029</v>
       </c>
       <c r="C20">
-        <v>-3.122203796101006</v>
+        <v>-3.3694535620505945</v>
       </c>
       <c r="D20">
-        <v>-3.2492819367851733</v>
+        <v>-3.4919118004896523</v>
       </c>
       <c r="E20">
-        <v>-4.214989320585287</v>
+        <v>-4.199394986493191</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -698,16 +1319,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>-5.514082982187538</v>
+        <v>-5.649531655620584</v>
       </c>
       <c r="C21">
-        <v>-3.1222593910395386</v>
+        <v>-3.3702290502208507</v>
       </c>
       <c r="D21">
-        <v>-3.2493163780151573</v>
+        <v>-3.4923701622289465</v>
       </c>
       <c r="E21">
-        <v>-4.219578856110312</v>
+        <v>-4.2301399501285</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -715,16 +1336,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-5.513653434139896</v>
+        <v>-5.64903110457486</v>
       </c>
       <c r="C22">
-        <v>-3.1211705524925035</v>
+        <v>-3.3670018247776885</v>
       </c>
       <c r="D22">
-        <v>-3.2485211502464475</v>
+        <v>-3.490439800476419</v>
       </c>
       <c r="E22">
-        <v>-4.064156458633816</v>
+        <v>-4.087632556263719</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -732,16 +1353,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>-5.513647340905423</v>
+        <v>-5.64866664684835</v>
       </c>
       <c r="C23">
-        <v>-3.121258056910645</v>
+        <v>-3.36491140437217</v>
       </c>
       <c r="D23">
-        <v>-3.2485137747139476</v>
+        <v>-3.489132806023139</v>
       </c>
       <c r="E23">
-        <v>-4.05356781406456</v>
+        <v>-4.009003875865778</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -749,16 +1370,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>-5.513077537766994</v>
+        <v>-5.648223331249281</v>
       </c>
       <c r="C24">
-        <v>-3.1202397023238495</v>
+        <v>-3.3653903363293916</v>
       </c>
       <c r="D24">
-        <v>-3.2477592995363387</v>
+        <v>-3.4893615844724715</v>
       </c>
       <c r="E24">
-        <v>-3.948634666906395</v>
+        <v>-3.9965932218683347</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -766,16 +1387,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>-5.512842177972828</v>
+        <v>-5.646285207658136</v>
       </c>
       <c r="C25">
-        <v>-3.1206085601198628</v>
+        <v>-3.362941022416755</v>
       </c>
       <c r="D25">
-        <v>-3.247912533173488</v>
+        <v>-3.4875042768421447</v>
       </c>
       <c r="E25">
-        <v>-3.9530275875124277</v>
+        <v>-3.8479252913474165</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -783,16 +1404,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>-5.5117875940384655</v>
+        <v>-5.641790198583236</v>
       </c>
       <c r="C26">
-        <v>-3.1183087704345227</v>
+        <v>-3.352471351497761</v>
       </c>
       <c r="D26">
-        <v>-3.2460659133502148</v>
+        <v>-3.480011057259113</v>
       </c>
       <c r="E26">
-        <v>-3.772725341926903</v>
+        <v>-3.5583384572274586</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -800,16 +1421,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-5.50973535722783</v>
+        <v>-5.632651341168093</v>
       </c>
       <c r="C27">
-        <v>-3.1194313791658796</v>
+        <v>-3.357111691018395</v>
       </c>
       <c r="D27">
-        <v>-3.2469315678506625</v>
+        <v>-3.4818948269503323</v>
       </c>
       <c r="E27">
-        <v>-3.8243751973874716</v>
+        <v>-3.378403928561486</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -817,16 +1438,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-5.506190514139004</v>
+        <v>-5.615329231295667</v>
       </c>
       <c r="C28">
-        <v>-3.114860243194529</v>
+        <v>-3.3364627864370062</v>
       </c>
       <c r="D28">
-        <v>-3.243650840670897</v>
+        <v>-3.4651357215474907</v>
       </c>
       <c r="E28">
-        <v>-3.6268410849268315</v>
+        <v>-3.0642601646504932</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -834,16 +1455,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-5.500633824136083</v>
+        <v>-5.57778545656806</v>
       </c>
       <c r="C29">
-        <v>-3.1079429145518964</v>
+        <v>-3.306733032984999</v>
       </c>
       <c r="D29">
-        <v>-3.2386325221386603</v>
+        <v>-3.43657573856564</v>
       </c>
       <c r="E29">
-        <v>-3.463142739044693</v>
+        <v>-2.5852017547139483</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -851,16 +1472,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-5.481914180075701</v>
+        <v>-5.456866667423247</v>
       </c>
       <c r="C30">
-        <v>-3.088500260029469</v>
+        <v>-3.219678113346321</v>
       </c>
       <c r="D30">
-        <v>-3.225637498728821</v>
+        <v>-3.3460543149681117</v>
       </c>
       <c r="E30">
-        <v>-3.2693158161691622</v>
+        <v>-1.9527555732033912</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -868,16 +1489,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-5.440516267843308</v>
+        <v>-5.073453594076847</v>
       </c>
       <c r="C31">
-        <v>-3.048750302170353</v>
+        <v>-2.949127200398351</v>
       </c>
       <c r="D31">
-        <v>-3.1973129452660958</v>
+        <v>-3.0407923174163822</v>
       </c>
       <c r="E31">
-        <v>-2.989457980469487</v>
+        <v>-1.076999918878384</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -885,16 +1506,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-4.505772981175902</v>
+        <v>-2.958637647088775</v>
       </c>
       <c r="C32">
-        <v>-2.580384547389531</v>
+        <v>-1.7124394332597686</v>
       </c>
       <c r="D32">
-        <v>-2.630823242093993</v>
+        <v>-1.725573048231032</v>
       </c>
       <c r="E32">
-        <v>-1.0045604626751</v>
+        <v>1.3714826019406705</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -902,16 +1523,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-4.4137244411035885</v>
+        <v>-2.4915144426547013</v>
       </c>
       <c r="C33">
-        <v>-2.4746494519613607</v>
+        <v>-1.4476366511846108</v>
       </c>
       <c r="D33">
-        <v>-2.5027806892306166</v>
+        <v>-1.4538643839073369</v>
       </c>
       <c r="E33">
-        <v>-0.7556396985355153</v>
+        <v>1.7948092273058813</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -919,16 +1540,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>-4.135327814135134</v>
+        <v>-2.68305380443814</v>
       </c>
       <c r="C34">
-        <v>-2.310981874676659</v>
+        <v>-1.5065940299567115</v>
       </c>
       <c r="D34">
-        <v>-2.3262745607594475</v>
+        <v>-1.5135861051938089</v>
       </c>
       <c r="E34">
-        <v>-0.35388108014158376</v>
+        <v>1.792596909627262</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -936,16 +1557,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-3.970869710284773</v>
+        <v>-2.414915426917944</v>
       </c>
       <c r="C35">
-        <v>-2.2377881970819375</v>
+        <v>-1.410686981549881</v>
       </c>
       <c r="D35">
-        <v>-2.2530995680536114</v>
+        <v>-1.4211977095681276</v>
       </c>
       <c r="E35">
-        <v>-0.5530850945005977</v>
+        <v>2.0885556580521683</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -953,16 +1574,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>-3.9001190943100927</v>
+        <v>-1.8717613896222611</v>
       </c>
       <c r="C36">
-        <v>-2.19534344437396</v>
+        <v>-1.1642274512871735</v>
       </c>
       <c r="D36">
-        <v>-2.2066381994232107</v>
+        <v>-1.1667410261793676</v>
       </c>
       <c r="E36">
-        <v>-0.1338864186123332</v>
+        <v>2.5144452021703025</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -970,16 +1591,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>-3.8443853921171183</v>
+        <v>-1.519357919249806</v>
       </c>
       <c r="C37">
-        <v>-2.1672831417386225</v>
+        <v>-1.012925179158565</v>
       </c>
       <c r="D37">
-        <v>-2.1746426169106408</v>
+        <v>-1.0131491819708278</v>
       </c>
       <c r="E37">
-        <v>0.02042095419276724</v>
+        <v>2.773130752639597</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -987,16 +1608,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.8046364865743567</v>
+        <v>-1.4105662403542971</v>
       </c>
       <c r="C38">
-        <v>-2.1507164119853863</v>
+        <v>-0.9453429945884589</v>
       </c>
       <c r="D38">
-        <v>-2.1541796648417733</v>
+        <v>-0.9454043567337196</v>
       </c>
       <c r="E38">
-        <v>0.14393299686478786</v>
+        <v>2.7958364192832046</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1004,16 +1625,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-3.786341980848449</v>
+        <v>-1.284852414702152</v>
       </c>
       <c r="C39">
-        <v>-2.144453174154167</v>
+        <v>-0.8604405201681772</v>
       </c>
       <c r="D39">
-        <v>-2.1447132478364157</v>
+        <v>-0.8604558726399545</v>
       </c>
       <c r="E39">
-        <v>0.252963815945837</v>
+        <v>2.780801161038477</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1021,16 +1642,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-3.784024357344221</v>
+        <v>-1.2247748804376566</v>
       </c>
       <c r="C40">
-        <v>-2.143227470959688</v>
+        <v>-0.8178471764224096</v>
       </c>
       <c r="D40">
-        <v>-2.1432291310914615</v>
+        <v>-0.817849044813783</v>
       </c>
       <c r="E40">
-        <v>-0.050081388972793094</v>
+        <v>2.7376450637064975</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1038,16 +1659,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>-3.783833207015698</v>
+        <v>-1.1871589270136569</v>
       </c>
       <c r="C41">
-        <v>-2.1430974386619557</v>
+        <v>-0.7890865452776769</v>
       </c>
       <c r="D41">
-        <v>-2.1430974620531664</v>
+        <v>-0.789086963726367</v>
       </c>
       <c r="E41">
-        <v>-0.34791562514478575</v>
+        <v>2.704249790735157</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1055,16 +1676,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>-3.7838106706108974</v>
+        <v>-1.1792659331341664</v>
       </c>
       <c r="C42">
-        <v>-2.1430843428171373</v>
+        <v>-0.7820124302663914</v>
       </c>
       <c r="D42">
-        <v>-2.1430843441779763</v>
+        <v>-0.7820126230219784</v>
       </c>
       <c r="E42">
-        <v>-0.41001370042861296</v>
+        <v>2.6904766636221087</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1072,16 +1693,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>-5.001115364586281</v>
+        <v>-4.791575708495403</v>
       </c>
       <c r="C43">
-        <v>-2.8745544805967924</v>
+        <v>-2.0066224789098466</v>
       </c>
       <c r="D43">
-        <v>-2.875322657295985</v>
+        <v>-2.006622492046603</v>
       </c>
       <c r="E43">
-        <v>-3.2592383318308977</v>
+        <v>0.020362300730896333</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1089,16 +1710,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-5.001333943228561</v>
+        <v>-4.791544901839527</v>
       </c>
       <c r="C44">
-        <v>-2.8745425337585795</v>
+        <v>-2.0065784542809864</v>
       </c>
       <c r="D44">
-        <v>-2.8753102866464078</v>
+        <v>-2.0065784544594654</v>
       </c>
       <c r="E44">
-        <v>-3.2237210523828095</v>
+        <v>-0.049407778929699754</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1106,16 +1727,16 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-5.001878065114763</v>
+        <v>-4.791546318148748</v>
       </c>
       <c r="C45">
-        <v>-2.874530638649713</v>
+        <v>-2.0065761302343006</v>
       </c>
       <c r="D45">
-        <v>-2.8752975057757966</v>
+        <v>-2.0065761302439884</v>
       </c>
       <c r="E45">
-        <v>-3.1877805477794796</v>
+        <v>-0.04859015750900354</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1123,16 +1744,16 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>-5.002655485419617</v>
+        <v>-4.791542867107253</v>
       </c>
       <c r="C46">
-        <v>-2.874518720473387</v>
+        <v>-2.006575795793873</v>
       </c>
       <c r="D46">
-        <v>-2.8752841305378727</v>
+        <v>-2.0065757957959143</v>
       </c>
       <c r="E46">
-        <v>-3.15151762493334</v>
+        <v>-0.05063808263262402</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1140,16 +1761,16 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>-5.003513782609707</v>
+        <v>-4.791545252624352</v>
       </c>
       <c r="C47">
-        <v>-2.874507028581698</v>
+        <v>-2.0065783239419708</v>
       </c>
       <c r="D47">
-        <v>-2.8752693681176074</v>
+        <v>-2.006578323944175</v>
       </c>
       <c r="E47">
-        <v>-3.113733181790536</v>
+        <v>-0.0818693981718977</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1157,16 +1778,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>-5.004411997148452</v>
+        <v>-4.791535446251104</v>
       </c>
       <c r="C48">
-        <v>-2.8744970186680203</v>
+        <v>-2.006569750072532</v>
       </c>
       <c r="D48">
-        <v>-2.875251140314291</v>
+        <v>-2.0065697500738393</v>
       </c>
       <c r="E48">
-        <v>-3.073124584710312</v>
+        <v>0.10209413263914635</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1174,16 +1795,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>-5.005417716214296</v>
+        <v>-4.791543908283248</v>
       </c>
       <c r="C49">
-        <v>-2.874484720717825</v>
+        <v>-2.0065783600947147</v>
       </c>
       <c r="D49">
-        <v>-2.8752325895321587</v>
+        <v>-2.0065783600969525</v>
       </c>
       <c r="E49">
-        <v>-3.030183525824866</v>
+        <v>2.7151344274503244</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1191,16 +1812,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>-0.6743441530568403</v>
+        <v>-4.7915405595439715</v>
       </c>
       <c r="C50">
-        <v>-0.18022588905582745</v>
+        <v>-2.0065748245777493</v>
       </c>
       <c r="D50">
-        <v>-0.18472647981173967</v>
+        <v>-2.006574824579644</v>
       </c>
       <c r="E50">
-        <v>3.150840812479011</v>
+        <v>1.8605778795542922</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1208,16 +1829,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>-0.674365121401216</v>
+        <v>-4.79153864189531</v>
       </c>
       <c r="C51">
-        <v>-0.18025101909363775</v>
+        <v>-2.006573757983273</v>
       </c>
       <c r="D51">
-        <v>-0.1846882214799867</v>
+        <v>-2.006573757985084</v>
       </c>
       <c r="E51">
-        <v>3.150914249246712</v>
+        <v>2.3460788462545157</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1225,152 +1846,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>-0.6743857601418833</v>
+        <v>-4.791537146913003</v>
       </c>
       <c r="C52">
-        <v>-0.18024947145131717</v>
+        <v>-2.0065729910537016</v>
       </c>
       <c r="D52">
-        <v>-0.18467527583463988</v>
+        <v>-2.006572991055427</v>
       </c>
       <c r="E52">
-        <v>3.1509346799835747</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>-0.6743973530879008</v>
-      </c>
-      <c r="C53">
-        <v>-0.18025480086363962</v>
-      </c>
-      <c r="D53">
-        <v>-0.1846608464030624</v>
-      </c>
-      <c r="E53">
-        <v>3.1509609726279457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>-0.6744085311818981</v>
-      </c>
-      <c r="C54">
-        <v>-0.18025471305530077</v>
-      </c>
-      <c r="D54">
-        <v>-0.18464919767870308</v>
-      </c>
-      <c r="E54">
-        <v>3.1509800229806455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>-0.6744165840490787</v>
-      </c>
-      <c r="C55">
-        <v>-0.1802509016384792</v>
-      </c>
-      <c r="D55">
-        <v>-0.1846400063046395</v>
-      </c>
-      <c r="E55">
-        <v>3.1509943117824317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>-0.6744246988905364</v>
-      </c>
-      <c r="C56">
-        <v>-0.18024443193485534</v>
-      </c>
-      <c r="D56">
-        <v>-0.18462953066521573</v>
-      </c>
-      <c r="E56">
-        <v>3.1510102016226895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>-0.6744328639849134</v>
-      </c>
-      <c r="C57">
-        <v>-0.1802336649511262</v>
-      </c>
-      <c r="D57">
-        <v>-0.18461722620948562</v>
-      </c>
-      <c r="E57">
-        <v>3.1510290472193234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>-0.6744415817246187</v>
-      </c>
-      <c r="C58">
-        <v>-0.18021749218101554</v>
-      </c>
-      <c r="D58">
-        <v>-0.18460259573174354</v>
-      </c>
-      <c r="E58">
-        <v>3.1510517670436426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>-0.6744510278675347</v>
-      </c>
-      <c r="C59">
-        <v>-0.18019457924418744</v>
-      </c>
-      <c r="D59">
-        <v>-0.18458543605476999</v>
-      </c>
-      <c r="E59">
-        <v>3.1510785121321816</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>-0.6744617760591691</v>
-      </c>
-      <c r="C60">
-        <v>-0.18016360404372564</v>
-      </c>
-      <c r="D60">
-        <v>-0.18456478725301168</v>
-      </c>
-      <c r="E60">
-        <v>3.151110450304235</v>
+        <v>1.7936314396720077</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1378,16 +1863,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>-5.123452753086634</v>
+        <v>-5.30255193629791</v>
       </c>
       <c r="C61">
-        <v>-2.8748920938805127</v>
+        <v>-2.468812281641109</v>
       </c>
       <c r="D61">
-        <v>-2.8754741971731934</v>
+        <v>-2.641486083068328</v>
       </c>
       <c r="E61">
-        <v>-3.2987932409658898</v>
+        <v>-2.4615944187760017</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1395,16 +1880,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>-5.126304150571263</v>
+        <v>-5.3246497300439195</v>
       </c>
       <c r="C62">
-        <v>-2.874921640327572</v>
+        <v>-2.4492034194544274</v>
       </c>
       <c r="D62">
-        <v>-2.875447209936076</v>
+        <v>-2.6257085449591866</v>
       </c>
       <c r="E62">
-        <v>-3.307415990697828</v>
+        <v>-2.36751452371882</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1412,16 +1897,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>-5.130346510557017</v>
+        <v>-5.159104925985339</v>
       </c>
       <c r="C63">
-        <v>-2.8749683406269977</v>
+        <v>-2.414041088578482</v>
       </c>
       <c r="D63">
-        <v>-2.8754062403827367</v>
+        <v>-2.595597555094916</v>
       </c>
       <c r="E63">
-        <v>-3.3090611783856905</v>
+        <v>-2.1801153361101777</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1429,16 +1914,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>-5.119954260120054</v>
+        <v>-4.284083455382725</v>
       </c>
       <c r="C64">
-        <v>-2.874978588048949</v>
+        <v>-2.000224262180849</v>
       </c>
       <c r="D64">
-        <v>-2.8753373250842422</v>
+        <v>-2.15699571308168</v>
       </c>
       <c r="E64">
-        <v>-1.3962966883209829</v>
+        <v>-1.0864210808638612</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1446,16 +1931,16 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>-5.075516681805538</v>
+        <v>-3.800564477863393</v>
       </c>
       <c r="C65">
-        <v>-2.8747922756625233</v>
+        <v>-2.2272303610296067</v>
       </c>
       <c r="D65">
-        <v>-2.875196884397523</v>
+        <v>-2.292032309874354</v>
       </c>
       <c r="E65">
-        <v>-2.1188054041142794</v>
+        <v>-1.1260395925163762</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1463,16 +1948,16 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>-5.079978396019327</v>
+        <v>-3.9340551896759277</v>
       </c>
       <c r="C66">
-        <v>-2.8748090339111942</v>
+        <v>-2.171891635386882</v>
       </c>
       <c r="D66">
-        <v>-2.8752025785423534</v>
+        <v>-2.222361910512291</v>
       </c>
       <c r="E66">
-        <v>-2.139602278492647</v>
+        <v>-1.039679312683779</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1480,16 +1965,16 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>-5.083306854727261</v>
+        <v>-4.068889462596623</v>
       </c>
       <c r="C67">
-        <v>-2.874811241259214</v>
+        <v>-2.143390130641026</v>
       </c>
       <c r="D67">
-        <v>-2.875199636811873</v>
+        <v>-2.1805740320987628</v>
       </c>
       <c r="E67">
-        <v>-2.1546478401640625</v>
+        <v>-0.9912201927876657</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1497,16 +1982,16 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>-5.087082057074717</v>
+        <v>-4.186936490018165</v>
       </c>
       <c r="C68">
-        <v>-2.8747978863669084</v>
+        <v>-2.124847531235201</v>
       </c>
       <c r="D68">
-        <v>-2.875187478578638</v>
+        <v>-2.155801948931232</v>
       </c>
       <c r="E68">
-        <v>-2.1473816378084614</v>
+        <v>-0.9674457144027616</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1514,16 +1999,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>-5.098970304405631</v>
+        <v>-5.09897030440563</v>
       </c>
       <c r="C72">
-        <v>-2.8749157592234686</v>
+        <v>-2.87491575922347</v>
       </c>
       <c r="D72">
-        <v>-2.8753667913978926</v>
+        <v>-2.87536679139789</v>
       </c>
       <c r="E72">
-        <v>-2.4730845534395636</v>
+        <v>-2.47308455343956</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1531,16 +2016,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>-5.1029422152165775</v>
+        <v>-5.10294221521658</v>
       </c>
       <c r="C73">
-        <v>-2.8749043452342913</v>
+        <v>-2.87490434523429</v>
       </c>
       <c r="D73">
-        <v>-2.8753611910463595</v>
+        <v>-2.87536119104636</v>
       </c>
       <c r="E73">
-        <v>-2.430525448657556</v>
+        <v>-2.43052544865756</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1551,13 +2036,13 @@
         <v>-5.10781257493926</v>
       </c>
       <c r="C74">
-        <v>-2.874893065427585</v>
+        <v>-2.87489306542758</v>
       </c>
       <c r="D74">
-        <v>-2.8753567071536414</v>
+        <v>-2.87535670715364</v>
       </c>
       <c r="E74">
-        <v>-2.4061641275881755</v>
+        <v>-2.40616412758818</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1565,16 +2050,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>-5.112638485163422</v>
+        <v>-5.11263848516342</v>
       </c>
       <c r="C75">
         <v>-2.87486509999929</v>
       </c>
       <c r="D75">
-        <v>-2.8753450582732474</v>
+        <v>-2.87534505827325</v>
       </c>
       <c r="E75">
-        <v>-2.326549525680515</v>
+        <v>-2.32654952568051</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -1582,16 +2067,16 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>-6.156138676665128</v>
+        <v>-6.15613867666513</v>
       </c>
       <c r="C100">
-        <v>-3.477180541738709</v>
+        <v>-3.47718054173871</v>
       </c>
       <c r="D100">
-        <v>-3.4775366198187383</v>
+        <v>-3.47753661981874</v>
       </c>
       <c r="E100">
-        <v>-3.7169657111397956</v>
+        <v>-3.7169657111398</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1599,16 +2084,16 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>-6.156728853001061</v>
+        <v>-6.15672885300106</v>
       </c>
       <c r="C101">
-        <v>-3.477179294683774</v>
+        <v>-3.47717929468377</v>
       </c>
       <c r="D101">
-        <v>-3.4775322325302973</v>
+        <v>-3.4775322325303</v>
       </c>
       <c r="E101">
-        <v>-3.6890452394496207</v>
+        <v>-3.68904523944962</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -1616,16 +2101,16 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>-6.157447311832097</v>
+        <v>-6.1574473118321</v>
       </c>
       <c r="C102">
-        <v>-3.477178380609847</v>
+        <v>-3.47717838060985</v>
       </c>
       <c r="D102">
-        <v>-3.4775275691172727</v>
+        <v>-3.47752756911727</v>
       </c>
       <c r="E102">
-        <v>-3.6617252318702933</v>
+        <v>-3.66172523187029</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -1633,16 +2118,16 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>-6.158282664201223</v>
+        <v>-6.15828266420122</v>
       </c>
       <c r="C103">
-        <v>-3.477177816372163</v>
+        <v>-3.47717781637216</v>
       </c>
       <c r="D103">
-        <v>-3.4775226290368644</v>
+        <v>-3.47752262903686</v>
       </c>
       <c r="E103">
-        <v>-3.635817355813874</v>
+        <v>-3.63581735581387</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -1650,16 +2135,16 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>-6.159396059299605</v>
+        <v>-6.15939605929961</v>
       </c>
       <c r="C104">
-        <v>-3.477177594521671</v>
+        <v>-3.47717759452167</v>
       </c>
       <c r="D104">
-        <v>-3.477517195306135</v>
+        <v>-3.47751719530613</v>
       </c>
       <c r="E104">
-        <v>-3.6090188634973077</v>
+        <v>-3.60901886349731</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -1667,16 +2152,16 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>-6.257329344194108</v>
+        <v>-6.25732934419411</v>
       </c>
       <c r="C105">
-        <v>-3.477273890529913</v>
+        <v>-3.47727389052991</v>
       </c>
       <c r="D105">
         <v>-3.47768616852751</v>
       </c>
       <c r="E105">
-        <v>-4.489191934107898</v>
+        <v>-4.4891919341079</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -1684,16 +2169,16 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>-6.162785684966413</v>
+        <v>-6.16278568496641</v>
       </c>
       <c r="C106">
-        <v>-3.4771779569571284</v>
+        <v>-3.47717795695713</v>
       </c>
       <c r="D106">
-        <v>-3.4775047039589535</v>
+        <v>-3.47750470395895</v>
       </c>
       <c r="E106">
-        <v>-3.553627908734409</v>
+        <v>-3.55362790873441</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -1701,13 +2186,13 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>-6.258480249733476</v>
+        <v>-6.25848024973348</v>
       </c>
       <c r="C107">
-        <v>-3.477275134571262</v>
+        <v>-3.47727513457126</v>
       </c>
       <c r="D107">
-        <v>-3.4776811948964967</v>
+        <v>-3.4776811948965</v>
       </c>
       <c r="E107">
         <v>-4.4204712504965</v>
@@ -1718,16 +2203,16 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>-6.168077865887291</v>
+        <v>-6.16807786588729</v>
       </c>
       <c r="C108">
-        <v>-3.4771794325569885</v>
+        <v>-3.47717943255699</v>
       </c>
       <c r="D108">
-        <v>-3.4774895513059425</v>
+        <v>-3.47748955130594</v>
       </c>
       <c r="E108">
-        <v>-3.4968969060193307</v>
+        <v>-3.49689690601933</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -1735,16 +2220,16 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>-6.260242595072452</v>
+        <v>-6.26024259507245</v>
       </c>
       <c r="C109">
-        <v>-3.4772766152399384</v>
+        <v>-3.47727661523994</v>
       </c>
       <c r="D109">
-        <v>-3.4776749993434395</v>
+        <v>-3.47767499934344</v>
       </c>
       <c r="E109">
-        <v>-4.342039482185038</v>
+        <v>-4.34203948218504</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -1752,16 +2237,16 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>-6.175742062318302</v>
+        <v>-6.1757420623183</v>
       </c>
       <c r="C110">
-        <v>-3.4771822179912513</v>
+        <v>-3.47718221799125</v>
       </c>
       <c r="D110">
-        <v>-3.4774708544682125</v>
+        <v>-3.47747085446821</v>
       </c>
       <c r="E110">
-        <v>-3.4388606714793255</v>
+        <v>-3.43886067147933</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -1772,13 +2257,13 @@
         <v>-6.26268540339213</v>
       </c>
       <c r="C111">
-        <v>-3.4772783663921367</v>
+        <v>-3.47727836639214</v>
       </c>
       <c r="D111">
-        <v>-3.4776674557607627</v>
+        <v>-3.47766745576076</v>
       </c>
       <c r="E111">
-        <v>-4.258243012967851</v>
+        <v>-4.25824301296785</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -1786,16 +2271,16 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>-6.186599559465562</v>
+        <v>-6.18659955946556</v>
       </c>
       <c r="C112">
-        <v>-3.4771857541190823</v>
+        <v>-3.47718575411908</v>
       </c>
       <c r="D112">
-        <v>-3.477447920872536</v>
+        <v>-3.47744792087254</v>
       </c>
       <c r="E112">
-        <v>-3.3757159585265946</v>
+        <v>-3.37571595852659</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -1803,16 +2288,16 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>-6.265623987378799</v>
+        <v>-6.2656239873788</v>
       </c>
       <c r="C113">
-        <v>-3.4772805935472966</v>
+        <v>-3.4772805935473</v>
       </c>
       <c r="D113">
-        <v>-3.4776587154616245</v>
+        <v>-3.47765871546162</v>
       </c>
       <c r="E113">
-        <v>-4.178317961560873</v>
+        <v>-4.17831796156087</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -1820,16 +2305,16 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>-6.200730954894246</v>
+        <v>-6.20073095489425</v>
       </c>
       <c r="C114">
-        <v>-3.4771888939115705</v>
+        <v>-3.47718889391157</v>
       </c>
       <c r="D114">
-        <v>-3.4774212351507283</v>
+        <v>-3.47742123515073</v>
       </c>
       <c r="E114">
-        <v>-3.3054038172920954</v>
+        <v>-3.3054038172921</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -1840,13 +2325,13 @@
         <v>-6.26853250803579</v>
       </c>
       <c r="C115">
-        <v>-3.477283780825128</v>
+        <v>-3.47728378082513</v>
       </c>
       <c r="D115">
-        <v>-3.4776493999875067</v>
+        <v>-3.47764939998751</v>
       </c>
       <c r="E115">
-        <v>-4.115094647962222</v>
+        <v>-4.11509464796222</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -1854,16 +2339,16 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>-6.216602114382655</v>
+        <v>-6.21660211438266</v>
       </c>
       <c r="C116">
-        <v>-3.477191152282503</v>
+        <v>-3.4771911522825</v>
       </c>
       <c r="D116">
-        <v>-3.4773929964603356</v>
+        <v>-3.47739299646034</v>
       </c>
       <c r="E116">
-        <v>-3.231956435669094</v>
+        <v>-3.23195643566909</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -1871,16 +2356,16 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>-6.270814820931743</v>
+        <v>-6.27081482093174</v>
       </c>
       <c r="C117">
-        <v>-3.477288362550029</v>
+        <v>-3.47728836255003</v>
       </c>
       <c r="D117">
-        <v>-3.4776403408866545</v>
+        <v>-3.47764034088665</v>
       </c>
       <c r="E117">
-        <v>-4.077979326585693</v>
+        <v>-4.07797932658569</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -1888,16 +2373,16 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>-6.234564198081047</v>
+        <v>-6.23456419808105</v>
       </c>
       <c r="C118">
-        <v>-3.4772156728529993</v>
+        <v>-3.477215672853</v>
       </c>
       <c r="D118">
-        <v>-3.4774877976647276</v>
+        <v>-3.47748779766473</v>
       </c>
       <c r="E118">
-        <v>-3.482299248199882</v>
+        <v>-3.48229924819988</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -1908,13 +2393,13 @@
         <v>-6.27241427341039</v>
       </c>
       <c r="C119">
-        <v>-3.4772944946523583</v>
+        <v>-3.47729449465236</v>
       </c>
       <c r="D119">
-        <v>-3.4776317594640913</v>
+        <v>-3.47763175946409</v>
       </c>
       <c r="E119">
-        <v>-4.065619051872528</v>
+        <v>-4.06561905187253</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -1922,16 +2407,16 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>-6.237719802590152</v>
+        <v>-6.23771980259015</v>
       </c>
       <c r="C120">
-        <v>-3.477218709709703</v>
+        <v>-3.4772187097097</v>
       </c>
       <c r="D120">
-        <v>-3.4774766404509774</v>
+        <v>-3.47747664045098</v>
       </c>
       <c r="E120">
-        <v>-3.4668834415217367</v>
+        <v>-3.46688344152174</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -1939,16 +2424,16 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>-6.2738515643468675</v>
+        <v>-6.27385156434687</v>
       </c>
       <c r="C121">
-        <v>-3.4773022877497195</v>
+        <v>-3.47730228774972</v>
       </c>
       <c r="D121">
-        <v>-3.4776229519821267</v>
+        <v>-3.47762295198213</v>
       </c>
       <c r="E121">
-        <v>-4.068111748586225</v>
+        <v>-4.06811174858623</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -1956,16 +2441,16 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>-6.238558051683922</v>
+        <v>-6.23855805168392</v>
       </c>
       <c r="C122">
         <v>-3.47722417839344</v>
       </c>
       <c r="D122">
-        <v>-3.477467703912168</v>
+        <v>-3.47746770391217</v>
       </c>
       <c r="E122">
-        <v>-3.4683063668984966</v>
+        <v>-3.4683063668985</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -1973,16 +2458,16 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>-6.275716879050839</v>
+        <v>-6.27571687905084</v>
       </c>
       <c r="C123">
-        <v>-3.477312335680099</v>
+        <v>-3.4773123356801</v>
       </c>
       <c r="D123">
-        <v>-3.477612717080531</v>
+        <v>-3.47761271708053</v>
       </c>
       <c r="E123">
-        <v>-4.075903424470435</v>
+        <v>-4.07590342447044</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -1990,16 +2475,16 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>-6.2393958808175025</v>
+        <v>-6.2393958808175</v>
       </c>
       <c r="C124">
-        <v>-3.4772330836411034</v>
+        <v>-3.4772330836411</v>
       </c>
       <c r="D124">
-        <v>-3.477457254219096</v>
+        <v>-3.4774572542191</v>
       </c>
       <c r="E124">
-        <v>-3.4783181840762687</v>
+        <v>-3.47831818407627</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2007,16 +2492,16 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>-6.27842675508972</v>
+        <v>-2.7923970631816366</v>
       </c>
       <c r="C125">
-        <v>-3.477326525448755</v>
+        <v>-1.2246412218992044</v>
       </c>
       <c r="D125">
-        <v>-3.477599195123701</v>
+        <v>-1.389200052158629</v>
       </c>
       <c r="E125">
-        <v>-4.083056861962384</v>
+        <v>-1.8408559034685714</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2024,16 +2509,16 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>-6.2423447743119125</v>
+        <v>-2.7927223984870024</v>
       </c>
       <c r="C126">
-        <v>-3.4772492463721343</v>
+        <v>-1.2243557359684323</v>
       </c>
       <c r="D126">
-        <v>-3.4774403624052104</v>
+        <v>-1.3889904650125833</v>
       </c>
       <c r="E126">
-        <v>-3.49030073366037</v>
+        <v>-1.798498606489533</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2041,16 +2526,16 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>-6.282567263065603</v>
+        <v>-2.793484958663564</v>
       </c>
       <c r="C127">
-        <v>-3.477352156248358</v>
+        <v>-1.2237532349804061</v>
       </c>
       <c r="D127">
-        <v>-3.4775754212653847</v>
+        <v>-1.3885420012137668</v>
       </c>
       <c r="E127">
-        <v>-4.0693227026593135</v>
+        <v>-1.6913242986669006</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2058,16 +2543,16 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>-6.279130566006017</v>
+        <v>-2.8050765008516496</v>
       </c>
       <c r="C128">
-        <v>-3.4773636161749333</v>
+        <v>-1.218995449301833</v>
       </c>
       <c r="D128">
-        <v>-3.4775551266349765</v>
+        <v>-1.3835391167584254</v>
       </c>
       <c r="E128">
-        <v>-2.3288533664428015</v>
+        <v>-0.8238858314022324</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2075,16 +2560,16 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>-1.7200762670808243</v>
+        <v>-2.840803734891458</v>
       </c>
       <c r="C129">
-        <v>0.12325375618219979</v>
+        <v>-1.2078681802513465</v>
       </c>
       <c r="D129">
-        <v>0.08967102956199993</v>
+        <v>-1.3563858262539212</v>
       </c>
       <c r="E129">
-        <v>3.6953909558704043</v>
+        <v>-0.23959604566626544</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2092,16 +2577,16 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>-6.22061305879276</v>
+        <v>-2.844835225561319</v>
       </c>
       <c r="C130">
-        <v>-3.477314917231075</v>
+        <v>-1.2014234975240756</v>
       </c>
       <c r="D130">
-        <v>-3.4774717398475863</v>
+        <v>-1.342827939714291</v>
       </c>
       <c r="E130">
-        <v>-2.5822121112583214</v>
+        <v>-0.15032829162954034</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2109,16 +2594,16 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>-1.7019984134219057</v>
+        <v>-2.8457877118917265</v>
       </c>
       <c r="C131">
-        <v>0.14509844472318775</v>
+        <v>-1.1963550522057051</v>
       </c>
       <c r="D131">
-        <v>0.1278297573170705</v>
+        <v>-1.332874075647899</v>
       </c>
       <c r="E131">
-        <v>3.5698502444740106</v>
+        <v>-0.10010773118603009</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2126,16 +2611,16 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>-6.22657879597302</v>
+        <v>-2.8466925458306567</v>
       </c>
       <c r="C132">
-        <v>-3.4773184082618838</v>
+        <v>-1.1920234471669777</v>
       </c>
       <c r="D132">
-        <v>-3.477470019392037</v>
+        <v>-1.3247042407497687</v>
       </c>
       <c r="E132">
-        <v>-2.607785788048717</v>
+        <v>-0.06465282415837131</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2143,16 +2628,16 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>-6.230295034117324</v>
+        <v>-6.23029503411732</v>
       </c>
       <c r="C134">
-        <v>-3.477317745436011</v>
+        <v>-3.47731774543601</v>
       </c>
       <c r="D134">
-        <v>-3.4774680114494783</v>
+        <v>-3.47746801144948</v>
       </c>
       <c r="E134">
-        <v>-2.632956445801669</v>
+        <v>-2.63295644580167</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2160,16 +2645,16 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>-6.234215507362045</v>
+        <v>-6.23421550736204</v>
       </c>
       <c r="C136">
         <v>-3.4773119568104</v>
       </c>
       <c r="D136">
-        <v>-3.4774634429383644</v>
+        <v>-3.47746344293836</v>
       </c>
       <c r="E136">
-        <v>-2.654133870790833</v>
+        <v>-2.65413387079083</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2177,16 +2662,16 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>-6.232640785645222</v>
+        <v>-6.23264078564522</v>
       </c>
       <c r="C138">
-        <v>-3.477309922393301</v>
+        <v>-3.4773099223933</v>
       </c>
       <c r="D138">
-        <v>-3.4774615578087675</v>
+        <v>-3.47746155780877</v>
       </c>
       <c r="E138">
-        <v>-2.721872467040342</v>
+        <v>-2.72187246704034</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2194,59 +2679,68 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>-6.228014840941545</v>
+        <v>-6.22801484094154</v>
       </c>
       <c r="C140">
-        <v>-3.4773118323313774</v>
+        <v>-3.47731183233138</v>
       </c>
       <c r="D140">
-        <v>-3.4774634715687367</v>
+        <v>-3.47746347156874</v>
       </c>
       <c r="E140">
-        <v>-2.797046423368725</v>
+        <v>-2.79704642336872</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7811EA0D-028A-48E7-90FD-5D1A252E2958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C03735-BA34-4EF6-9F76-197F790E4C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594877B7-FBD9-483C-B975-D7A2C2247322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>